--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719464027</v>
+        <v>0.9717494206864619</v>
       </c>
       <c r="G2">
-        <v>-0.7350821582185281</v>
+        <v>-1.682295576140549</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.711420631642272</v>
+        <v>0.471132462496503</v>
       </c>
       <c r="G3">
-        <v>-7.271100266470581</v>
+        <v>-23.17979850064458</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124704010374</v>
+        <v>0.2355662312459417</v>
       </c>
       <c r="G4">
-        <v>-2.952918817266613</v>
+        <v>-23.17979849566917</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -598,22 +598,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265500.66581</v>
+        <v>3.458697219799994</v>
       </c>
       <c r="C5">
-        <v>1100000024083.695</v>
+        <v>119.8127862538162</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142515</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416213</v>
       </c>
       <c r="F5">
-        <v>0.06018306202382884</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000001066059</v>
+        <v>71.78826692943717</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023643972</v>
+        <v>0.2355662312500081</v>
       </c>
       <c r="G6">
-        <v>-9.673011157412185E-09</v>
+        <v>-23.17979849110233</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538982531</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.028134418459593</v>
+        <v>0.9717494206873251</v>
       </c>
       <c r="P2">
-        <v>1.077959469435821</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>28.17453160928734</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-90.69428644301162</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>151.5326674576811</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672167839</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.7311545120199407</v>
+        <v>0.4711324625045257</v>
       </c>
       <c r="P3">
-        <v>0.98507869969647</v>
+        <v>0.8867526821368238</v>
       </c>
       <c r="Q3">
-        <v>19.99748951701672</v>
+        <v>11.70358232174648</v>
       </c>
       <c r="R3">
-        <v>-96.70515797813935</v>
+        <v>-113.1797985005416</v>
       </c>
       <c r="S3">
-        <v>158.4629648481379</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660679844</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.6093826337930718</v>
+        <v>0.2355662312557485</v>
       </c>
       <c r="P4">
-        <v>0.9943261549536413</v>
+        <v>0.9127115190423141</v>
       </c>
       <c r="Q4">
-        <v>17.35880671887116</v>
+        <v>6.185827764751343</v>
       </c>
       <c r="R4">
-        <v>-92.6765358435927</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>162.2051963356334</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="D5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="G5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -917,34 +917,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.9713352289731567</v>
+        <v>0.9526279648043278</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289693503</v>
+        <v>0.9526279648061705</v>
       </c>
       <c r="Q5">
-        <v>-1.951184347745244E-10</v>
+        <v>-1.465977806891572E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997976</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023881558</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>1.100000023667782</v>
+        <v>0.235566231259815</v>
       </c>
       <c r="P6">
-        <v>1.100000023726079</v>
+        <v>0.912711519050749</v>
       </c>
       <c r="Q6">
-        <v>29.99999999375012</v>
+        <v>6.185827765114877</v>
       </c>
       <c r="R6">
-        <v>-90.00000000916758</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>150.0000000019271</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538982531</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.028134418459593</v>
+        <v>0.9717494206873251</v>
       </c>
       <c r="P2">
-        <v>1.077959469435821</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>28.17453160928734</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-90.69428644301162</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>151.5326674576811</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672167839</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.7311545120199407</v>
+        <v>0.4711324625045257</v>
       </c>
       <c r="P3">
-        <v>0.98507869969647</v>
+        <v>0.8867526821368238</v>
       </c>
       <c r="Q3">
-        <v>19.99748951701672</v>
+        <v>11.70358232174648</v>
       </c>
       <c r="R3">
-        <v>-96.70515797813935</v>
+        <v>-113.1797985005416</v>
       </c>
       <c r="S3">
-        <v>158.4629648481379</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660679844</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.6093826337930718</v>
+        <v>0.2355662312557485</v>
       </c>
       <c r="P4">
-        <v>0.9943261549536413</v>
+        <v>0.9127115190423141</v>
       </c>
       <c r="Q4">
-        <v>17.35880671887116</v>
+        <v>6.185827764751343</v>
       </c>
       <c r="R4">
-        <v>-92.6765358435927</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>162.2051963356334</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="D5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="G5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1284,34 +1284,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.9713352289731567</v>
+        <v>0.9526279648043278</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289693503</v>
+        <v>0.9526279648061705</v>
       </c>
       <c r="Q5">
-        <v>-1.951184347745244E-10</v>
+        <v>-1.465977806891572E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997976</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023881558</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>1.100000023667782</v>
+        <v>0.235566231259815</v>
       </c>
       <c r="P6">
-        <v>1.100000023726079</v>
+        <v>0.912711519050749</v>
       </c>
       <c r="Q6">
-        <v>29.99999999375012</v>
+        <v>6.185827765114877</v>
       </c>
       <c r="R6">
-        <v>-90.00000000916758</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>150.0000000019271</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538982531</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.028134418459593</v>
+        <v>0.9717494206873251</v>
       </c>
       <c r="P2">
-        <v>1.077959469435821</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>28.17453160928734</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-90.69428644301162</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>151.5326674576811</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672167839</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.7311545120199407</v>
+        <v>0.4711324625045257</v>
       </c>
       <c r="P3">
-        <v>0.98507869969647</v>
+        <v>0.8867526821368238</v>
       </c>
       <c r="Q3">
-        <v>19.99748951701672</v>
+        <v>11.70358232174648</v>
       </c>
       <c r="R3">
-        <v>-96.70515797813935</v>
+        <v>-113.1797985005416</v>
       </c>
       <c r="S3">
-        <v>158.4629648481379</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660679844</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.6093826337930718</v>
+        <v>0.2355662312557485</v>
       </c>
       <c r="P4">
-        <v>0.9943261549536413</v>
+        <v>0.9127115190423141</v>
       </c>
       <c r="Q4">
-        <v>17.35880671887116</v>
+        <v>6.185827764751343</v>
       </c>
       <c r="R4">
-        <v>-92.6765358435927</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>162.2051963356334</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="D5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="G5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1651,34 +1651,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.9713352289731567</v>
+        <v>0.9526279648043278</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289693503</v>
+        <v>0.9526279648061705</v>
       </c>
       <c r="Q5">
-        <v>-1.951184347745244E-10</v>
+        <v>-1.465977806891572E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997976</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023881558</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>1.100000023667782</v>
+        <v>0.235566231259815</v>
       </c>
       <c r="P6">
-        <v>1.100000023726079</v>
+        <v>0.912711519050749</v>
       </c>
       <c r="Q6">
-        <v>29.99999999375012</v>
+        <v>6.185827765114877</v>
       </c>
       <c r="R6">
-        <v>-90.00000000916758</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>150.0000000019271</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257846626</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.9364965948364646</v>
+        <v>0.8925077601169356</v>
       </c>
       <c r="P2">
-        <v>0.9748156030546428</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
-        <v>28.05924688090109</v>
+        <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-91.44625255040445</v>
+        <v>-93.21942694842284</v>
       </c>
       <c r="S2">
-        <v>151.3289570018882</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624353952</v>
+        <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.7097178126688017</v>
+        <v>0.5561090193399912</v>
       </c>
       <c r="P3">
-        <v>0.8774140245115074</v>
+        <v>0.7706324860879301</v>
       </c>
       <c r="Q3">
-        <v>20.55281704292224</v>
+        <v>13.65879647337782</v>
       </c>
       <c r="R3">
-        <v>-100.5742849467501</v>
+        <v>-118.993657238633</v>
       </c>
       <c r="S3">
-        <v>156.7312439676216</v>
+        <v>161.6033321423728</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644046589</v>
+        <v>0.9413015024173009</v>
       </c>
       <c r="O4">
-        <v>0.5675512578940197</v>
+        <v>0.2780545096809833</v>
       </c>
       <c r="P4">
-        <v>0.8972376977535628</v>
+        <v>0.8078419627250765</v>
       </c>
       <c r="Q4">
-        <v>17.58460736817169</v>
+        <v>7.422585260182362</v>
       </c>
       <c r="R4">
-        <v>-94.38698935491654</v>
+        <v>-118.9936572335706</v>
       </c>
       <c r="S4">
-        <v>161.6677107612723</v>
+        <v>171.3424305981766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="D5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="G5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2018,34 +2018,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.8830320072019124</v>
+        <v>0.866025403788761</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071987624</v>
+        <v>0.8660254037891283</v>
       </c>
       <c r="Q5">
-        <v>-1.776753933729637E-10</v>
+        <v>1.933816549993998E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999999815</v>
+        <v>179.9999999997987</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000046745</v>
+        <v>0.941301502410579</v>
       </c>
       <c r="O6">
-        <v>0.9999999999380709</v>
+        <v>0.2780545096894995</v>
       </c>
       <c r="P6">
-        <v>0.9999999999261893</v>
+        <v>0.8078419627343743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999655748</v>
+        <v>7.422585260806275</v>
       </c>
       <c r="R6">
-        <v>-90.00000000781864</v>
+        <v>-118.9936572288336</v>
       </c>
       <c r="S6">
-        <v>149.9999999997545</v>
+        <v>171.3424305976101</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257846626</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.9364965948364646</v>
+        <v>0.8925077601169356</v>
       </c>
       <c r="P2">
-        <v>0.9748156030546428</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
-        <v>28.05924688090109</v>
+        <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-91.44625255040445</v>
+        <v>-93.21942694842284</v>
       </c>
       <c r="S2">
-        <v>151.3289570018882</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624353952</v>
+        <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.7097178126688017</v>
+        <v>0.5561090193399912</v>
       </c>
       <c r="P3">
-        <v>0.8774140245115074</v>
+        <v>0.7706324860879301</v>
       </c>
       <c r="Q3">
-        <v>20.55281704292224</v>
+        <v>13.65879647337782</v>
       </c>
       <c r="R3">
-        <v>-100.5742849467501</v>
+        <v>-118.993657238633</v>
       </c>
       <c r="S3">
-        <v>156.7312439676216</v>
+        <v>161.6033321423728</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644046589</v>
+        <v>0.9413015024173009</v>
       </c>
       <c r="O4">
-        <v>0.5675512578940197</v>
+        <v>0.2780545096809833</v>
       </c>
       <c r="P4">
-        <v>0.8972376977535628</v>
+        <v>0.8078419627250765</v>
       </c>
       <c r="Q4">
-        <v>17.58460736817169</v>
+        <v>7.422585260182362</v>
       </c>
       <c r="R4">
-        <v>-94.38698935491654</v>
+        <v>-118.9936572335706</v>
       </c>
       <c r="S4">
-        <v>161.6677107612723</v>
+        <v>171.3424305981766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="D5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="G5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2385,34 +2385,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.8830320072019124</v>
+        <v>0.866025403788761</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071987624</v>
+        <v>0.8660254037891283</v>
       </c>
       <c r="Q5">
-        <v>-1.776753933729637E-10</v>
+        <v>1.933816549993998E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999999815</v>
+        <v>179.9999999997987</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000046745</v>
+        <v>0.941301502410579</v>
       </c>
       <c r="O6">
-        <v>0.9999999999380709</v>
+        <v>0.2780545096894995</v>
       </c>
       <c r="P6">
-        <v>0.9999999999261893</v>
+        <v>0.8078419627343743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999655748</v>
+        <v>7.422585260806275</v>
       </c>
       <c r="R6">
-        <v>-90.00000000781864</v>
+        <v>-118.9936572288336</v>
       </c>
       <c r="S6">
-        <v>149.9999999997545</v>
+        <v>171.3424305976101</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257846626</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.9364965948364646</v>
+        <v>0.8925077601169356</v>
       </c>
       <c r="P2">
-        <v>0.9748156030546428</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
-        <v>28.05924688090109</v>
+        <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-91.44625255040445</v>
+        <v>-93.21942694842284</v>
       </c>
       <c r="S2">
-        <v>151.3289570018882</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624353952</v>
+        <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.7097178126688017</v>
+        <v>0.5561090193399912</v>
       </c>
       <c r="P3">
-        <v>0.8774140245115074</v>
+        <v>0.7706324860879301</v>
       </c>
       <c r="Q3">
-        <v>20.55281704292224</v>
+        <v>13.65879647337782</v>
       </c>
       <c r="R3">
-        <v>-100.5742849467501</v>
+        <v>-118.993657238633</v>
       </c>
       <c r="S3">
-        <v>156.7312439676216</v>
+        <v>161.6033321423728</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644046589</v>
+        <v>0.9413015024173009</v>
       </c>
       <c r="O4">
-        <v>0.5675512578940197</v>
+        <v>0.2780545096809833</v>
       </c>
       <c r="P4">
-        <v>0.8972376977535628</v>
+        <v>0.8078419627250765</v>
       </c>
       <c r="Q4">
-        <v>17.58460736817169</v>
+        <v>7.422585260182362</v>
       </c>
       <c r="R4">
-        <v>-94.38698935491654</v>
+        <v>-118.9936572335706</v>
       </c>
       <c r="S4">
-        <v>161.6677107612723</v>
+        <v>171.3424305981766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2731,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="D5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="G5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2752,34 +2752,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.8830320072019124</v>
+        <v>0.866025403788761</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071987624</v>
+        <v>0.8660254037891283</v>
       </c>
       <c r="Q5">
-        <v>-1.776753933729637E-10</v>
+        <v>1.933816549993998E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999999815</v>
+        <v>179.9999999997987</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000046745</v>
+        <v>0.941301502410579</v>
       </c>
       <c r="O6">
-        <v>0.9999999999380709</v>
+        <v>0.2780545096894995</v>
       </c>
       <c r="P6">
-        <v>0.9999999999261893</v>
+        <v>0.8078419627343743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999655748</v>
+        <v>7.422585260806275</v>
       </c>
       <c r="R6">
-        <v>-90.00000000781864</v>
+        <v>-118.9936572288336</v>
       </c>
       <c r="S6">
-        <v>149.9999999997545</v>
+        <v>171.3424305976101</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257846626</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.9364965948364646</v>
+        <v>0.8925077601169356</v>
       </c>
       <c r="P2">
-        <v>0.9748156030546428</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
-        <v>28.05924688090109</v>
+        <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-91.44625255040445</v>
+        <v>-93.21942694842284</v>
       </c>
       <c r="S2">
-        <v>151.3289570018882</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624353952</v>
+        <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.7097178126688017</v>
+        <v>0.5561090193399912</v>
       </c>
       <c r="P3">
-        <v>0.8774140245115074</v>
+        <v>0.7706324860879301</v>
       </c>
       <c r="Q3">
-        <v>20.55281704292224</v>
+        <v>13.65879647337782</v>
       </c>
       <c r="R3">
-        <v>-100.5742849467501</v>
+        <v>-118.993657238633</v>
       </c>
       <c r="S3">
-        <v>156.7312439676216</v>
+        <v>161.6033321423728</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644046589</v>
+        <v>0.9413015024173009</v>
       </c>
       <c r="O4">
-        <v>0.5675512578940197</v>
+        <v>0.2780545096809833</v>
       </c>
       <c r="P4">
-        <v>0.8972376977535628</v>
+        <v>0.8078419627250765</v>
       </c>
       <c r="Q4">
-        <v>17.58460736817169</v>
+        <v>7.422585260182362</v>
       </c>
       <c r="R4">
-        <v>-94.38698935491654</v>
+        <v>-118.9936572335706</v>
       </c>
       <c r="S4">
-        <v>161.6677107612723</v>
+        <v>171.3424305981766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3098,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="D5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="G5">
-        <v>294344002433.139</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3119,34 +3119,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.8830320072019124</v>
+        <v>0.866025403788761</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071987624</v>
+        <v>0.8660254037891283</v>
       </c>
       <c r="Q5">
-        <v>-1.776753933729637E-10</v>
+        <v>1.933816549993998E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999999815</v>
+        <v>179.9999999997987</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000046745</v>
+        <v>0.941301502410579</v>
       </c>
       <c r="O6">
-        <v>0.9999999999380709</v>
+        <v>0.2780545096894995</v>
       </c>
       <c r="P6">
-        <v>0.9999999999261893</v>
+        <v>0.8078419627343743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999655748</v>
+        <v>7.422585260806275</v>
       </c>
       <c r="R6">
-        <v>-90.00000000781864</v>
+        <v>-118.9936572288336</v>
       </c>
       <c r="S6">
-        <v>149.9999999997545</v>
+        <v>171.3424305976101</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526496309</v>
+        <v>0.9917389427111208</v>
       </c>
       <c r="O2">
-        <v>1.096025874296523</v>
+        <v>1.100000023847089</v>
       </c>
       <c r="P2">
-        <v>1.064011720995921</v>
+        <v>1.018773429518528</v>
       </c>
       <c r="Q2">
-        <v>30.75110892017325</v>
+        <v>31.98313762604858</v>
       </c>
       <c r="R2">
-        <v>-90.03597890936119</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S2">
-        <v>148.5090295579122</v>
+        <v>145.6590995766424</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873596196081</v>
+        <v>0.5406599594186524</v>
       </c>
       <c r="O3">
-        <v>1.079357280168599</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P3">
-        <v>0.930128008574628</v>
+        <v>0.8035144867332757</v>
       </c>
       <c r="Q3">
-        <v>33.98935893683884</v>
+        <v>46.07338582619841</v>
       </c>
       <c r="R3">
-        <v>-90.25035334542559</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>140.3871932169079</v>
+        <v>117.8263709265779</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421989291678</v>
+        <v>0.5057548966381507</v>
       </c>
       <c r="O4">
-        <v>1.072860426775365</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P4">
-        <v>0.8501720954433891</v>
+        <v>0.6576086866432964</v>
       </c>
       <c r="Q4">
-        <v>38.74753265938744</v>
+        <v>68.23456708388066</v>
       </c>
       <c r="R4">
-        <v>-90.0839562276707</v>
+        <v>-89.99999999999623</v>
       </c>
       <c r="S4">
-        <v>139.3155868743796</v>
+        <v>106.5696916197919</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265498.5349</v>
+        <v>5.18804582944022</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674669.9594</v>
+        <v>59.90639312390854</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3498,37 +3498,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075635</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.4884387014162</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171095</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>0.5832496257687363</v>
+        <v>0.550000011953244</v>
       </c>
       <c r="O5">
-        <v>1.039230824733427</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P5">
-        <v>0.5832496257219597</v>
+        <v>0.5500000118973563</v>
       </c>
       <c r="Q5">
-        <v>62.98619605043623</v>
+        <v>89.99999999448272</v>
       </c>
       <c r="R5">
-        <v>-89.99999999940592</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S5">
-        <v>117.0138039530801</v>
+        <v>90.00000000551</v>
       </c>
       <c r="T5">
-        <v>31754265498.5349</v>
+        <v>5.18804582944022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023678622</v>
+        <v>0.5057548966543195</v>
       </c>
       <c r="O6">
-        <v>1.100000023818394</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P6">
-        <v>1.100000023780279</v>
+        <v>0.6576086866330463</v>
       </c>
       <c r="Q6">
-        <v>29.99999999758127</v>
+        <v>68.23456708343635</v>
       </c>
       <c r="R6">
-        <v>-90.00000000050301</v>
+        <v>-89.99999999999623</v>
       </c>
       <c r="S6">
-        <v>149.9999999922269</v>
+        <v>106.5696916209337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526496309</v>
+        <v>0.9917389427111208</v>
       </c>
       <c r="O2">
-        <v>1.096025874296523</v>
+        <v>1.100000023847089</v>
       </c>
       <c r="P2">
-        <v>1.064011720995921</v>
+        <v>1.018773429518528</v>
       </c>
       <c r="Q2">
-        <v>30.75110892017325</v>
+        <v>31.98313762604858</v>
       </c>
       <c r="R2">
-        <v>-90.03597890936119</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S2">
-        <v>148.5090295579122</v>
+        <v>145.6590995766424</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873596196081</v>
+        <v>0.5406599594186524</v>
       </c>
       <c r="O3">
-        <v>1.079357280168599</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P3">
-        <v>0.930128008574628</v>
+        <v>0.8035144867332757</v>
       </c>
       <c r="Q3">
-        <v>33.98935893683884</v>
+        <v>46.07338582619841</v>
       </c>
       <c r="R3">
-        <v>-90.25035334542559</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>140.3871932169079</v>
+        <v>117.8263709265779</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421989291678</v>
+        <v>0.5057548966381507</v>
       </c>
       <c r="O4">
-        <v>1.072860426775365</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P4">
-        <v>0.8501720954433891</v>
+        <v>0.6576086866432964</v>
       </c>
       <c r="Q4">
-        <v>38.74753265938744</v>
+        <v>68.23456708388066</v>
       </c>
       <c r="R4">
-        <v>-90.0839562276707</v>
+        <v>-89.99999999999623</v>
       </c>
       <c r="S4">
-        <v>139.3155868743796</v>
+        <v>106.5696916197919</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265498.5349</v>
+        <v>5.18804582944022</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674669.9594</v>
+        <v>59.90639312390854</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3883,37 +3883,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075635</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.4884387014162</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171095</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>0.5832496257687363</v>
+        <v>0.550000011953244</v>
       </c>
       <c r="O5">
-        <v>1.039230824733427</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P5">
-        <v>0.5832496257219597</v>
+        <v>0.5500000118973563</v>
       </c>
       <c r="Q5">
-        <v>62.98619605043623</v>
+        <v>89.99999999448272</v>
       </c>
       <c r="R5">
-        <v>-89.99999999940592</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S5">
-        <v>117.0138039530801</v>
+        <v>90.00000000551</v>
       </c>
       <c r="T5">
-        <v>31754265498.5349</v>
+        <v>5.18804582944022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023678622</v>
+        <v>0.5057548966543195</v>
       </c>
       <c r="O6">
-        <v>1.100000023818394</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P6">
-        <v>1.100000023780279</v>
+        <v>0.6576086866330463</v>
       </c>
       <c r="Q6">
-        <v>29.99999999758127</v>
+        <v>68.23456708343635</v>
       </c>
       <c r="R6">
-        <v>-90.00000000050301</v>
+        <v>-89.99999999999623</v>
       </c>
       <c r="S6">
-        <v>149.9999999922269</v>
+        <v>106.5696916209337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.07005338699304</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086480205218673</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93022374263624</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5977988866262</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9434172310242593</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.044661961491181</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.07850908506786</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>142.115867082149</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8985690160381108</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>1.001074895726563</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.9027155372654</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.3701275405207</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>15.73319923289742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4268,37 +4268,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075635</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.4884387014162</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171095</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8547266890462561</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.9585011797248308</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.9162846990792</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.467406117994</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8985690160412707</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>1.001074895724771</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>30.90271553745784</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.3701275407487</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719464027</v>
+        <v>0.9717494206864619</v>
       </c>
       <c r="G2">
-        <v>-0.7350821582185281</v>
+        <v>-1.682295576140549</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.711420631642272</v>
+        <v>0.471132462496503</v>
       </c>
       <c r="G3">
-        <v>-7.271100266470581</v>
+        <v>-23.17979850064458</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124704010374</v>
+        <v>0.2355662312459417</v>
       </c>
       <c r="G4">
-        <v>-2.952918817266613</v>
+        <v>-23.17979849566917</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4473,22 +4473,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265500.66581</v>
+        <v>3.458697219799994</v>
       </c>
       <c r="C5">
-        <v>1100000024083.695</v>
+        <v>119.8127862538162</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142515</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416213</v>
       </c>
       <c r="F5">
-        <v>0.06018306202382884</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000001066059</v>
+        <v>71.78826692943717</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023643972</v>
+        <v>0.2355662312500081</v>
       </c>
       <c r="G6">
-        <v>-9.673011157412185E-09</v>
+        <v>-23.17979849110233</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.07005338699304</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086480205218673</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93022374263624</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5977988866262</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9434172310242593</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.044661961491181</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.07850908506786</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>142.115867082149</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8985690160381108</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>1.001074895726563</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.9027155372654</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.3701275405207</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>15.73319923289742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4804,37 +4804,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075635</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.4884387014162</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171095</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8547266890462561</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.9585011797248308</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.9162846990792</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.467406117994</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8985690160412707</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>1.001074895724771</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>30.90271553745784</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.3701275407487</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095381288</v>
+        <v>0.8966713734871343</v>
       </c>
       <c r="O2">
-        <v>0.9964761462513788</v>
+        <v>0.9999999999961731</v>
       </c>
       <c r="P2">
-        <v>0.9719096284646722</v>
+        <v>0.9438408768220408</v>
       </c>
       <c r="Q2">
-        <v>30.3166998235019</v>
+        <v>30.61107002287189</v>
       </c>
       <c r="R2">
-        <v>-90.07508069017868</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.1402189969705</v>
+        <v>144.8484486356858</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960644175</v>
+        <v>0.4985008017277147</v>
       </c>
       <c r="O3">
-        <v>0.9833239238224899</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P3">
-        <v>0.8842484437032631</v>
+        <v>0.8458030579082588</v>
       </c>
       <c r="Q3">
-        <v>31.07876276226737</v>
+        <v>32.32516518541934</v>
       </c>
       <c r="R3">
-        <v>-90.41924373722819</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>139.6021034742137</v>
+        <v>119.8706392621925</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156661259</v>
+        <v>0.4373394470353295</v>
       </c>
       <c r="O4">
-        <v>0.9760205715775576</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P4">
-        <v>0.7858310070177521</v>
+        <v>0.6516944633876428</v>
       </c>
       <c r="Q4">
-        <v>37.72192694394271</v>
+        <v>61.20994934641834</v>
       </c>
       <c r="R4">
-        <v>-90.14079250129508</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S4">
-        <v>139.0387173175934</v>
+        <v>108.8561569746339</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773523</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333358.8807</v>
+        <v>47.95286076627841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5189,37 +5189,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088274</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851247</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088116</v>
       </c>
       <c r="N5">
-        <v>0.5302269210086259</v>
+        <v>0.500000000018031</v>
       </c>
       <c r="O5">
-        <v>0.944755274725201</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P5">
-        <v>0.5302269209648947</v>
+        <v>0.4999999999834788</v>
       </c>
       <c r="Q5">
-        <v>62.98619605275796</v>
+        <v>89.99999999549722</v>
       </c>
       <c r="R5">
-        <v>-89.99999999945889</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S5">
-        <v>117.0138039507189</v>
+        <v>90.00000000449491</v>
       </c>
       <c r="T5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999205684</v>
+        <v>0.4373394470552117</v>
       </c>
       <c r="O6">
-        <v>0.9999999999916224</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P6">
-        <v>0.999999999999391</v>
+        <v>0.6516944633797506</v>
       </c>
       <c r="Q6">
-        <v>29.99999999670223</v>
+        <v>61.20994934544284</v>
       </c>
       <c r="R6">
-        <v>-90.0000000004285</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S6">
-        <v>149.9999999946039</v>
+        <v>108.8561569763667</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095381288</v>
+        <v>0.8966713734871343</v>
       </c>
       <c r="O2">
-        <v>0.9964761462513788</v>
+        <v>0.9999999999961731</v>
       </c>
       <c r="P2">
-        <v>0.9719096284646722</v>
+        <v>0.9438408768220408</v>
       </c>
       <c r="Q2">
-        <v>30.3166998235019</v>
+        <v>30.61107002287189</v>
       </c>
       <c r="R2">
-        <v>-90.07508069017868</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.1402189969705</v>
+        <v>144.8484486356858</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960644175</v>
+        <v>0.4985008017277147</v>
       </c>
       <c r="O3">
-        <v>0.9833239238224899</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P3">
-        <v>0.8842484437032631</v>
+        <v>0.8458030579082588</v>
       </c>
       <c r="Q3">
-        <v>31.07876276226737</v>
+        <v>32.32516518541934</v>
       </c>
       <c r="R3">
-        <v>-90.41924373722819</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>139.6021034742137</v>
+        <v>119.8706392621925</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156661259</v>
+        <v>0.4373394470353295</v>
       </c>
       <c r="O4">
-        <v>0.9760205715775576</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P4">
-        <v>0.7858310070177521</v>
+        <v>0.6516944633876428</v>
       </c>
       <c r="Q4">
-        <v>37.72192694394271</v>
+        <v>61.20994934641834</v>
       </c>
       <c r="R4">
-        <v>-90.14079250129508</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S4">
-        <v>139.0387173175934</v>
+        <v>108.8561569746339</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773523</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333358.8807</v>
+        <v>47.95286076627841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5574,37 +5574,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088274</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851247</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088116</v>
       </c>
       <c r="N5">
-        <v>0.5302269210086259</v>
+        <v>0.500000000018031</v>
       </c>
       <c r="O5">
-        <v>0.944755274725201</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P5">
-        <v>0.5302269209648947</v>
+        <v>0.4999999999834788</v>
       </c>
       <c r="Q5">
-        <v>62.98619605275796</v>
+        <v>89.99999999549722</v>
       </c>
       <c r="R5">
-        <v>-89.99999999945889</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S5">
-        <v>117.0138039507189</v>
+        <v>90.00000000449491</v>
       </c>
       <c r="T5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999205684</v>
+        <v>0.4373394470552117</v>
       </c>
       <c r="O6">
-        <v>0.9999999999916224</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P6">
-        <v>0.999999999999391</v>
+        <v>0.6516944633797506</v>
       </c>
       <c r="Q6">
-        <v>29.99999999670223</v>
+        <v>61.20994934544284</v>
       </c>
       <c r="R6">
-        <v>-90.0000000004285</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S6">
-        <v>149.9999999946039</v>
+        <v>108.8561569763667</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9706292519998697</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985837</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.9879862005556695</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.84250695526115</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4471765695397</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8589794972912008</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9561489247927523</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.64757030494523</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>142.0362307983303</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8140158862310342</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8919303698408604</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.18097742317094</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.5730987250092</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163809</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.62331119858783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5959,37 +5959,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088274</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851247</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088116</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7725012617988068</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8283833974071204</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>36.11052438552571</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.884239796956</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8140158862367382</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8919303698407993</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>32.18097742330896</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.5730987253967</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9706292519998697</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985837</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.9879862005556695</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.84250695526115</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4471765695397</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8589794972912008</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9561489247927523</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.64757030494523</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>142.0362307983303</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8140158862310342</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8919303698408604</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.18097742317094</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.5730987250092</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163809</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.62331119858783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6344,37 +6344,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088274</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851247</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088116</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7725012617988068</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8283833974071204</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>36.11052438552571</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.884239796956</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8140158862367382</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8919303698407993</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>32.18097742330896</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.5730987253967</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06470852768996</v>
+        <v>0.9717494207164722</v>
       </c>
       <c r="O2">
-        <v>1.024081333193689</v>
+        <v>0.9717494206916383</v>
       </c>
       <c r="P2">
-        <v>1.057104282137956</v>
+        <v>0.9717494207031514</v>
       </c>
       <c r="Q2">
-        <v>28.49381784403814</v>
+        <v>28.31770442398509</v>
       </c>
       <c r="R2">
-        <v>-90.73639486213638</v>
+        <v>-91.6822955760716</v>
       </c>
       <c r="S2">
-        <v>150.7786273659784</v>
+        <v>148.3177044252175</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060119724046</v>
+        <v>0.4711324626214048</v>
       </c>
       <c r="O3">
-        <v>0.710789328845948</v>
+        <v>0.4711324625050279</v>
       </c>
       <c r="P3">
-        <v>0.8728137019013237</v>
+        <v>0.47113246251198</v>
       </c>
       <c r="Q3">
-        <v>20.34129285270419</v>
+        <v>6.820201507665582</v>
       </c>
       <c r="R3">
-        <v>-97.28975848502493</v>
+        <v>-113.1797984995245</v>
       </c>
       <c r="S3">
-        <v>154.1637402969482</v>
+        <v>126.8202015163201</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540957892995</v>
+        <v>0.2355662314151711</v>
       </c>
       <c r="O4">
-        <v>0.5817547041753084</v>
+        <v>0.2355662312552986</v>
       </c>
       <c r="P4">
-        <v>0.8331218488899187</v>
+        <v>0.2355662312918535</v>
       </c>
       <c r="Q4">
-        <v>19.2027816384779</v>
+        <v>6.820201519128974</v>
       </c>
       <c r="R4">
-        <v>-92.96219771937332</v>
+        <v>-113.1797984930499</v>
       </c>
       <c r="S4">
-        <v>158.9109756954086</v>
+        <v>126.8202015467077</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840970.52925</v>
+        <v>5.990639311563637</v>
       </c>
       <c r="D5">
-        <v>32377840972.95094</v>
+        <v>5.990639311916996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104002.2792</v>
+        <v>69.1739443829844</v>
       </c>
       <c r="G5">
-        <v>373867104030.2424</v>
+        <v>69.17394438706465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6729,37 +6729,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.5945778888351436</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.06211196817851737</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5945778888372643</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.9940347938828</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.0000000010978</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059652000001</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840968.47954</v>
+        <v>10.37609165721695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023792262</v>
+        <v>0.2355662314192377</v>
       </c>
       <c r="O6">
-        <v>1.100000023649744</v>
+        <v>0.235566231259365</v>
       </c>
       <c r="P6">
-        <v>1.100000023688608</v>
+        <v>0.2355662312959197</v>
       </c>
       <c r="Q6">
-        <v>29.99999999225807</v>
+        <v>6.820201523695893</v>
       </c>
       <c r="R6">
-        <v>-90.00000000968545</v>
+        <v>-113.1797984884831</v>
       </c>
       <c r="S6">
-        <v>149.9999999977078</v>
+        <v>126.8202015512746</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06470852768996</v>
+        <v>0.9717494207164722</v>
       </c>
       <c r="O2">
-        <v>1.024081333193689</v>
+        <v>0.9717494206916383</v>
       </c>
       <c r="P2">
-        <v>1.057104282137956</v>
+        <v>0.9717494207031514</v>
       </c>
       <c r="Q2">
-        <v>28.49381784403814</v>
+        <v>28.31770442398509</v>
       </c>
       <c r="R2">
-        <v>-90.73639486213638</v>
+        <v>-91.6822955760716</v>
       </c>
       <c r="S2">
-        <v>150.7786273659784</v>
+        <v>148.3177044252175</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060119724046</v>
+        <v>0.4711324626214048</v>
       </c>
       <c r="O3">
-        <v>0.710789328845948</v>
+        <v>0.4711324625050279</v>
       </c>
       <c r="P3">
-        <v>0.8728137019013237</v>
+        <v>0.47113246251198</v>
       </c>
       <c r="Q3">
-        <v>20.34129285270419</v>
+        <v>6.820201507665582</v>
       </c>
       <c r="R3">
-        <v>-97.28975848502493</v>
+        <v>-113.1797984995245</v>
       </c>
       <c r="S3">
-        <v>154.1637402969482</v>
+        <v>126.8202015163201</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540957892995</v>
+        <v>0.2355662314151711</v>
       </c>
       <c r="O4">
-        <v>0.5817547041753084</v>
+        <v>0.2355662312552986</v>
       </c>
       <c r="P4">
-        <v>0.8331218488899187</v>
+        <v>0.2355662312918535</v>
       </c>
       <c r="Q4">
-        <v>19.2027816384779</v>
+        <v>6.820201519128974</v>
       </c>
       <c r="R4">
-        <v>-92.96219771937332</v>
+        <v>-113.1797984930499</v>
       </c>
       <c r="S4">
-        <v>158.9109756954086</v>
+        <v>126.8202015467077</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,19 +7093,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840970.52925</v>
+        <v>5.990639311563637</v>
       </c>
       <c r="D5">
-        <v>32377840972.95094</v>
+        <v>5.990639311916996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104002.2792</v>
+        <v>69.1739443829844</v>
       </c>
       <c r="G5">
-        <v>373867104030.2424</v>
+        <v>69.17394438706465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7114,37 +7114,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.5945778888351436</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.06211196817851737</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5945778888372643</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.9940347938828</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.0000000010978</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059652000001</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840968.47954</v>
+        <v>10.37609165721695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023792262</v>
+        <v>0.2355662314192377</v>
       </c>
       <c r="O6">
-        <v>1.100000023649744</v>
+        <v>0.235566231259365</v>
       </c>
       <c r="P6">
-        <v>1.100000023688608</v>
+        <v>0.2355662312959197</v>
       </c>
       <c r="Q6">
-        <v>29.99999999225807</v>
+        <v>6.820201523695893</v>
       </c>
       <c r="R6">
-        <v>-90.00000000968545</v>
+        <v>-113.1797984884831</v>
       </c>
       <c r="S6">
-        <v>149.9999999977078</v>
+        <v>126.8202015512746</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06470852768996</v>
+        <v>0.9717494207164722</v>
       </c>
       <c r="O2">
-        <v>1.024081333193689</v>
+        <v>0.9717494206916383</v>
       </c>
       <c r="P2">
-        <v>1.057104282137956</v>
+        <v>0.9717494207031514</v>
       </c>
       <c r="Q2">
-        <v>28.49381784403814</v>
+        <v>28.31770442398509</v>
       </c>
       <c r="R2">
-        <v>-90.73639486213638</v>
+        <v>-91.6822955760716</v>
       </c>
       <c r="S2">
-        <v>150.7786273659784</v>
+        <v>148.3177044252175</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060119724046</v>
+        <v>0.4711324626214048</v>
       </c>
       <c r="O3">
-        <v>0.710789328845948</v>
+        <v>0.4711324625050279</v>
       </c>
       <c r="P3">
-        <v>0.8728137019013237</v>
+        <v>0.47113246251198</v>
       </c>
       <c r="Q3">
-        <v>20.34129285270419</v>
+        <v>6.820201507665582</v>
       </c>
       <c r="R3">
-        <v>-97.28975848502493</v>
+        <v>-113.1797984995245</v>
       </c>
       <c r="S3">
-        <v>154.1637402969482</v>
+        <v>126.8202015163201</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540957892995</v>
+        <v>0.2355662314151711</v>
       </c>
       <c r="O4">
-        <v>0.5817547041753084</v>
+        <v>0.2355662312552986</v>
       </c>
       <c r="P4">
-        <v>0.8331218488899187</v>
+        <v>0.2355662312918535</v>
       </c>
       <c r="Q4">
-        <v>19.2027816384779</v>
+        <v>6.820201519128974</v>
       </c>
       <c r="R4">
-        <v>-92.96219771937332</v>
+        <v>-113.1797984930499</v>
       </c>
       <c r="S4">
-        <v>158.9109756954086</v>
+        <v>126.8202015467077</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,19 +7478,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840970.52925</v>
+        <v>5.990639311563637</v>
       </c>
       <c r="D5">
-        <v>32377840972.95094</v>
+        <v>5.990639311916996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104002.2792</v>
+        <v>69.1739443829844</v>
       </c>
       <c r="G5">
-        <v>373867104030.2424</v>
+        <v>69.17394438706465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7499,37 +7499,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.5945778888351436</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.06211196817851737</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5945778888372643</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.9940347938828</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.0000000010978</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059652000001</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840968.47954</v>
+        <v>10.37609165721695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023792262</v>
+        <v>0.2355662314192377</v>
       </c>
       <c r="O6">
-        <v>1.100000023649744</v>
+        <v>0.235566231259365</v>
       </c>
       <c r="P6">
-        <v>1.100000023688608</v>
+        <v>0.2355662312959197</v>
       </c>
       <c r="Q6">
-        <v>29.99999999225807</v>
+        <v>6.820201523695893</v>
       </c>
       <c r="R6">
-        <v>-90.00000000968545</v>
+        <v>-113.1797984884831</v>
       </c>
       <c r="S6">
-        <v>149.9999999977078</v>
+        <v>126.8202015512746</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06470852768996</v>
+        <v>0.9717494207164722</v>
       </c>
       <c r="O2">
-        <v>1.024081333193689</v>
+        <v>0.9717494206916383</v>
       </c>
       <c r="P2">
-        <v>1.057104282137956</v>
+        <v>0.9717494207031514</v>
       </c>
       <c r="Q2">
-        <v>28.49381784403814</v>
+        <v>28.31770442398509</v>
       </c>
       <c r="R2">
-        <v>-90.73639486213638</v>
+        <v>-91.6822955760716</v>
       </c>
       <c r="S2">
-        <v>150.7786273659784</v>
+        <v>148.3177044252175</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060119724046</v>
+        <v>0.4711324626214048</v>
       </c>
       <c r="O3">
-        <v>0.710789328845948</v>
+        <v>0.4711324625050279</v>
       </c>
       <c r="P3">
-        <v>0.8728137019013237</v>
+        <v>0.47113246251198</v>
       </c>
       <c r="Q3">
-        <v>20.34129285270419</v>
+        <v>6.820201507665582</v>
       </c>
       <c r="R3">
-        <v>-97.28975848502493</v>
+        <v>-113.1797984995245</v>
       </c>
       <c r="S3">
-        <v>154.1637402969482</v>
+        <v>126.8202015163201</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540957892995</v>
+        <v>0.2355662314151711</v>
       </c>
       <c r="O4">
-        <v>0.5817547041753084</v>
+        <v>0.2355662312552986</v>
       </c>
       <c r="P4">
-        <v>0.8331218488899187</v>
+        <v>0.2355662312918535</v>
       </c>
       <c r="Q4">
-        <v>19.2027816384779</v>
+        <v>6.820201519128974</v>
       </c>
       <c r="R4">
-        <v>-92.96219771937332</v>
+        <v>-113.1797984930499</v>
       </c>
       <c r="S4">
-        <v>158.9109756954086</v>
+        <v>126.8202015467077</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,19 +7863,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840970.52925</v>
+        <v>5.990639311563637</v>
       </c>
       <c r="D5">
-        <v>32377840972.95094</v>
+        <v>5.990639311916996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104002.2792</v>
+        <v>69.1739443829844</v>
       </c>
       <c r="G5">
-        <v>373867104030.2424</v>
+        <v>69.17394438706465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7884,37 +7884,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.5945778888351436</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.06211196817851737</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5945778888372643</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.9940347938828</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.0000000010978</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059652000001</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840968.47954</v>
+        <v>10.37609165721695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023792262</v>
+        <v>0.2355662314192377</v>
       </c>
       <c r="O6">
-        <v>1.100000023649744</v>
+        <v>0.235566231259365</v>
       </c>
       <c r="P6">
-        <v>1.100000023688608</v>
+        <v>0.2355662312959197</v>
       </c>
       <c r="Q6">
-        <v>29.99999999225807</v>
+        <v>6.820201523695893</v>
       </c>
       <c r="R6">
-        <v>-90.00000000968545</v>
+        <v>-113.1797984884831</v>
       </c>
       <c r="S6">
-        <v>149.9999999977078</v>
+        <v>126.8202015512746</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842897298</v>
+        <v>0.892507760131139</v>
       </c>
       <c r="O2">
-        <v>0.9329299242061782</v>
+        <v>0.8925077601136238</v>
       </c>
       <c r="P2">
-        <v>0.9581836708239337</v>
+        <v>0.8925077601141856</v>
       </c>
       <c r="Q2">
-        <v>28.13219420512046</v>
+        <v>26.78057305214607</v>
       </c>
       <c r="R2">
-        <v>-91.53377747803114</v>
+        <v>-93.21942694845659</v>
       </c>
       <c r="S2">
-        <v>150.3503418413233</v>
+        <v>146.7805730528112</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386625553712</v>
+        <v>0.5561090193964657</v>
       </c>
       <c r="O3">
-        <v>0.6943631325543309</v>
+        <v>0.5561090193441953</v>
       </c>
       <c r="P3">
-        <v>0.7965930094571544</v>
+        <v>0.5561090193002607</v>
       </c>
       <c r="Q3">
-        <v>19.60327145042938</v>
+        <v>1.006342769759713</v>
       </c>
       <c r="R3">
-        <v>-101.429341527462</v>
+        <v>-118.9936572385715</v>
       </c>
       <c r="S3">
-        <v>151.2800244251908</v>
+        <v>121.0063427702507</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621029863</v>
+        <v>0.2780545097843384</v>
       </c>
       <c r="O4">
-        <v>0.5433154598561202</v>
+        <v>0.2780545096858937</v>
       </c>
       <c r="P4">
-        <v>0.7570993497915433</v>
+        <v>0.2780545096647438</v>
       </c>
       <c r="Q4">
-        <v>18.94495364167214</v>
+        <v>1.006342783045985</v>
       </c>
       <c r="R4">
-        <v>-94.84247768968591</v>
+        <v>-118.9936572336933</v>
       </c>
       <c r="S4">
-        <v>157.8990167173563</v>
+        <v>121.0063427922368</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,19 +8248,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400241.65627</v>
+        <v>4.795286076026515</v>
       </c>
       <c r="D5">
-        <v>29434400243.92387</v>
+        <v>4.795286076429949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178059.1086</v>
+        <v>55.37119413670345</v>
       </c>
       <c r="G5">
-        <v>339879178085.2927</v>
+        <v>55.3711941413619</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8269,37 +8269,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.5405253417463338</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542440152096</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.540525341748721</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034794414834</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000068866</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651993554</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400241.21919</v>
+        <v>8.305679120511529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000004134</v>
+        <v>0.2780545097928547</v>
       </c>
       <c r="O6">
-        <v>0.9999999999316843</v>
+        <v>0.2780545096944099</v>
       </c>
       <c r="P6">
-        <v>0.9999999999237631</v>
+        <v>0.2780545096732598</v>
       </c>
       <c r="Q6">
-        <v>29.99999999465547</v>
+        <v>1.006342787782974</v>
       </c>
       <c r="R6">
-        <v>-90.00000000826033</v>
+        <v>-118.9936572289564</v>
       </c>
       <c r="S6">
-        <v>149.9999999967852</v>
+        <v>121.0063427969737</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719464027</v>
+        <v>0.9717494206864619</v>
       </c>
       <c r="G2">
-        <v>-0.7350821582185281</v>
+        <v>-1.682295576140549</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.711420631642272</v>
+        <v>0.471132462496503</v>
       </c>
       <c r="G3">
-        <v>-7.271100266470581</v>
+        <v>-23.17979850064458</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124704010374</v>
+        <v>0.2355662312459417</v>
       </c>
       <c r="G4">
-        <v>-2.952918817266613</v>
+        <v>-23.17979849566917</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8474,22 +8474,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265500.66581</v>
+        <v>3.458697219799994</v>
       </c>
       <c r="C5">
-        <v>1100000024083.695</v>
+        <v>119.8127862538162</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142515</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416213</v>
       </c>
       <c r="F5">
-        <v>0.06018306202382884</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000001066059</v>
+        <v>71.78826692943717</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023643972</v>
+        <v>0.2355662312500081</v>
       </c>
       <c r="G6">
-        <v>-9.673011157412185E-09</v>
+        <v>-23.17979849110233</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842897298</v>
+        <v>0.892507760131139</v>
       </c>
       <c r="O2">
-        <v>0.9329299242061782</v>
+        <v>0.8925077601136238</v>
       </c>
       <c r="P2">
-        <v>0.9581836708239337</v>
+        <v>0.8925077601141856</v>
       </c>
       <c r="Q2">
-        <v>28.13219420512046</v>
+        <v>26.78057305214607</v>
       </c>
       <c r="R2">
-        <v>-91.53377747803114</v>
+        <v>-93.21942694845659</v>
       </c>
       <c r="S2">
-        <v>150.3503418413233</v>
+        <v>146.7805730528112</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386625553712</v>
+        <v>0.5561090193964657</v>
       </c>
       <c r="O3">
-        <v>0.6943631325543309</v>
+        <v>0.5561090193441953</v>
       </c>
       <c r="P3">
-        <v>0.7965930094571544</v>
+        <v>0.5561090193002607</v>
       </c>
       <c r="Q3">
-        <v>19.60327145042938</v>
+        <v>1.006342769759713</v>
       </c>
       <c r="R3">
-        <v>-101.429341527462</v>
+        <v>-118.9936572385715</v>
       </c>
       <c r="S3">
-        <v>151.2800244251908</v>
+        <v>121.0063427702507</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621029863</v>
+        <v>0.2780545097843384</v>
       </c>
       <c r="O4">
-        <v>0.5433154598561202</v>
+        <v>0.2780545096858937</v>
       </c>
       <c r="P4">
-        <v>0.7570993497915433</v>
+        <v>0.2780545096647438</v>
       </c>
       <c r="Q4">
-        <v>18.94495364167214</v>
+        <v>1.006342783045985</v>
       </c>
       <c r="R4">
-        <v>-94.84247768968591</v>
+        <v>-118.9936572336933</v>
       </c>
       <c r="S4">
-        <v>157.8990167173563</v>
+        <v>121.0063427922368</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400241.65627</v>
+        <v>4.795286076026515</v>
       </c>
       <c r="D5">
-        <v>29434400243.92387</v>
+        <v>4.795286076429949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178059.1086</v>
+        <v>55.37119413670345</v>
       </c>
       <c r="G5">
-        <v>339879178085.2927</v>
+        <v>55.3711941413619</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8805,37 +8805,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.5405253417463338</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542440152096</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.540525341748721</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034794414834</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000068866</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651993554</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400241.21919</v>
+        <v>8.305679120511529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000004134</v>
+        <v>0.2780545097928547</v>
       </c>
       <c r="O6">
-        <v>0.9999999999316843</v>
+        <v>0.2780545096944099</v>
       </c>
       <c r="P6">
-        <v>0.9999999999237631</v>
+        <v>0.2780545096732598</v>
       </c>
       <c r="Q6">
-        <v>29.99999999465547</v>
+        <v>1.006342787782974</v>
       </c>
       <c r="R6">
-        <v>-90.00000000826033</v>
+        <v>-118.9936572289564</v>
       </c>
       <c r="S6">
-        <v>149.9999999967852</v>
+        <v>121.0063427969737</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842897298</v>
+        <v>0.892507760131139</v>
       </c>
       <c r="O2">
-        <v>0.9329299242061782</v>
+        <v>0.8925077601136238</v>
       </c>
       <c r="P2">
-        <v>0.9581836708239337</v>
+        <v>0.8925077601141856</v>
       </c>
       <c r="Q2">
-        <v>28.13219420512046</v>
+        <v>26.78057305214607</v>
       </c>
       <c r="R2">
-        <v>-91.53377747803114</v>
+        <v>-93.21942694845659</v>
       </c>
       <c r="S2">
-        <v>150.3503418413233</v>
+        <v>146.7805730528112</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386625553712</v>
+        <v>0.5561090193964657</v>
       </c>
       <c r="O3">
-        <v>0.6943631325543309</v>
+        <v>0.5561090193441953</v>
       </c>
       <c r="P3">
-        <v>0.7965930094571544</v>
+        <v>0.5561090193002607</v>
       </c>
       <c r="Q3">
-        <v>19.60327145042938</v>
+        <v>1.006342769759713</v>
       </c>
       <c r="R3">
-        <v>-101.429341527462</v>
+        <v>-118.9936572385715</v>
       </c>
       <c r="S3">
-        <v>151.2800244251908</v>
+        <v>121.0063427702507</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621029863</v>
+        <v>0.2780545097843384</v>
       </c>
       <c r="O4">
-        <v>0.5433154598561202</v>
+        <v>0.2780545096858937</v>
       </c>
       <c r="P4">
-        <v>0.7570993497915433</v>
+        <v>0.2780545096647438</v>
       </c>
       <c r="Q4">
-        <v>18.94495364167214</v>
+        <v>1.006342783045985</v>
       </c>
       <c r="R4">
-        <v>-94.84247768968591</v>
+        <v>-118.9936572336933</v>
       </c>
       <c r="S4">
-        <v>157.8990167173563</v>
+        <v>121.0063427922368</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400241.65627</v>
+        <v>4.795286076026515</v>
       </c>
       <c r="D5">
-        <v>29434400243.92387</v>
+        <v>4.795286076429949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178059.1086</v>
+        <v>55.37119413670345</v>
       </c>
       <c r="G5">
-        <v>339879178085.2927</v>
+        <v>55.3711941413619</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9190,37 +9190,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.5405253417463338</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542440152096</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.540525341748721</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034794414834</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000068866</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651993554</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400241.21919</v>
+        <v>8.305679120511529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000004134</v>
+        <v>0.2780545097928547</v>
       </c>
       <c r="O6">
-        <v>0.9999999999316843</v>
+        <v>0.2780545096944099</v>
       </c>
       <c r="P6">
-        <v>0.9999999999237631</v>
+        <v>0.2780545096732598</v>
       </c>
       <c r="Q6">
-        <v>29.99999999465547</v>
+        <v>1.006342787782974</v>
       </c>
       <c r="R6">
-        <v>-90.00000000826033</v>
+        <v>-118.9936572289564</v>
       </c>
       <c r="S6">
-        <v>149.9999999967852</v>
+        <v>121.0063427969737</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842897298</v>
+        <v>0.892507760131139</v>
       </c>
       <c r="O2">
-        <v>0.9329299242061782</v>
+        <v>0.8925077601136238</v>
       </c>
       <c r="P2">
-        <v>0.9581836708239337</v>
+        <v>0.8925077601141856</v>
       </c>
       <c r="Q2">
-        <v>28.13219420512046</v>
+        <v>26.78057305214607</v>
       </c>
       <c r="R2">
-        <v>-91.53377747803114</v>
+        <v>-93.21942694845659</v>
       </c>
       <c r="S2">
-        <v>150.3503418413233</v>
+        <v>146.7805730528112</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386625553712</v>
+        <v>0.5561090193964657</v>
       </c>
       <c r="O3">
-        <v>0.6943631325543309</v>
+        <v>0.5561090193441953</v>
       </c>
       <c r="P3">
-        <v>0.7965930094571544</v>
+        <v>0.5561090193002607</v>
       </c>
       <c r="Q3">
-        <v>19.60327145042938</v>
+        <v>1.006342769759713</v>
       </c>
       <c r="R3">
-        <v>-101.429341527462</v>
+        <v>-118.9936572385715</v>
       </c>
       <c r="S3">
-        <v>151.2800244251908</v>
+        <v>121.0063427702507</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621029863</v>
+        <v>0.2780545097843384</v>
       </c>
       <c r="O4">
-        <v>0.5433154598561202</v>
+        <v>0.2780545096858937</v>
       </c>
       <c r="P4">
-        <v>0.7570993497915433</v>
+        <v>0.2780545096647438</v>
       </c>
       <c r="Q4">
-        <v>18.94495364167214</v>
+        <v>1.006342783045985</v>
       </c>
       <c r="R4">
-        <v>-94.84247768968591</v>
+        <v>-118.9936572336933</v>
       </c>
       <c r="S4">
-        <v>157.8990167173563</v>
+        <v>121.0063427922368</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,19 +9554,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400241.65627</v>
+        <v>4.795286076026515</v>
       </c>
       <c r="D5">
-        <v>29434400243.92387</v>
+        <v>4.795286076429949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178059.1086</v>
+        <v>55.37119413670345</v>
       </c>
       <c r="G5">
-        <v>339879178085.2927</v>
+        <v>55.3711941413619</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9575,37 +9575,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864168</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088175</v>
       </c>
       <c r="N5">
-        <v>0.5405253417463338</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542440152096</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.540525341748721</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034794414834</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000068866</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651993554</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400241.21919</v>
+        <v>8.305679120511529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000004134</v>
+        <v>0.2780545097928547</v>
       </c>
       <c r="O6">
-        <v>0.9999999999316843</v>
+        <v>0.2780545096944099</v>
       </c>
       <c r="P6">
-        <v>0.9999999999237631</v>
+        <v>0.2780545096732598</v>
       </c>
       <c r="Q6">
-        <v>29.99999999465547</v>
+        <v>1.006342787782974</v>
       </c>
       <c r="R6">
-        <v>-90.00000000826033</v>
+        <v>-118.9936572289564</v>
       </c>
       <c r="S6">
-        <v>149.9999999967852</v>
+        <v>121.0063427969737</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719464027</v>
+        <v>0.9717494206864619</v>
       </c>
       <c r="G2">
-        <v>-0.7350821582185281</v>
+        <v>-1.682295576140549</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.711420631642272</v>
+        <v>0.471132462496503</v>
       </c>
       <c r="G3">
-        <v>-7.271100266470581</v>
+        <v>-23.17979850064458</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124704010374</v>
+        <v>0.2355662312459417</v>
       </c>
       <c r="G4">
-        <v>-2.952918817266613</v>
+        <v>-23.17979849566917</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9780,22 +9780,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265500.66581</v>
+        <v>3.458697219799994</v>
       </c>
       <c r="C5">
-        <v>1100000024083.695</v>
+        <v>119.8127862538162</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142515</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416213</v>
       </c>
       <c r="F5">
-        <v>0.06018306202382884</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000001066059</v>
+        <v>71.78826692943717</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023643972</v>
+        <v>0.2355662312500081</v>
       </c>
       <c r="G6">
-        <v>-9.673011157412185E-09</v>
+        <v>-23.17979849110233</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.933040655372688</v>
+        <v>0.8925077601078493</v>
       </c>
       <c r="G2">
-        <v>-1.531049297940812</v>
+        <v>-3.219426948484622</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6948376003812453</v>
+        <v>0.5561090193350877</v>
       </c>
       <c r="G3">
-        <v>-11.40221982470526</v>
+        <v>-28.99365723912848</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710608532</v>
+        <v>0.2780545096765584</v>
       </c>
       <c r="G4">
-        <v>-4.827721958025635</v>
+        <v>-28.99365723481437</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9931,22 +9931,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513462.72</v>
+        <v>2.768559707297154</v>
       </c>
       <c r="C5">
-        <v>1000000000112.192</v>
+        <v>95.9057215365338</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870838</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.05471187338748251</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000000969054</v>
+        <v>59.57443045127811</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999296002</v>
+        <v>0.2780545096850748</v>
       </c>
       <c r="G6">
-        <v>-8.250259507376616E-09</v>
+        <v>-28.99365723007736</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.933040655372688</v>
+        <v>0.8925077601078493</v>
       </c>
       <c r="G2">
-        <v>-1.531049297940812</v>
+        <v>-3.219426948484622</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6948376003812453</v>
+        <v>0.5561090193350877</v>
       </c>
       <c r="G3">
-        <v>-11.40221982470526</v>
+        <v>-28.99365723912848</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710608532</v>
+        <v>0.2780545096765584</v>
       </c>
       <c r="G4">
-        <v>-4.827721958025635</v>
+        <v>-28.99365723481437</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10082,22 +10082,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513462.72</v>
+        <v>2.768559707297154</v>
       </c>
       <c r="C5">
-        <v>1000000000112.192</v>
+        <v>95.9057215365338</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870838</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.05471187338748251</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000000969054</v>
+        <v>59.57443045127811</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999296002</v>
+        <v>0.2780545096850748</v>
       </c>
       <c r="G6">
-        <v>-8.250259507376616E-09</v>
+        <v>-28.99365723007736</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.933040655372688</v>
+        <v>0.8925077601078493</v>
       </c>
       <c r="G2">
-        <v>-1.531049297940812</v>
+        <v>-3.219426948484622</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6948376003812453</v>
+        <v>0.5561090193350877</v>
       </c>
       <c r="G3">
-        <v>-11.40221982470526</v>
+        <v>-28.99365723912848</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710608532</v>
+        <v>0.2780545096765584</v>
       </c>
       <c r="G4">
-        <v>-4.827721958025635</v>
+        <v>-28.99365723481437</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10233,22 +10233,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513462.72</v>
+        <v>2.768559707297154</v>
       </c>
       <c r="C5">
-        <v>1000000000112.192</v>
+        <v>95.9057215365338</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870838</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.05471187338748251</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000000969054</v>
+        <v>59.57443045127811</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999296002</v>
+        <v>0.2780545096850748</v>
       </c>
       <c r="G6">
-        <v>-8.250259507376616E-09</v>
+        <v>-28.99365723007736</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.933040655372688</v>
+        <v>0.8925077601078493</v>
       </c>
       <c r="G2">
-        <v>-1.531049297940812</v>
+        <v>-3.219426948484622</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6948376003812453</v>
+        <v>0.5561090193350877</v>
       </c>
       <c r="G3">
-        <v>-11.40221982470526</v>
+        <v>-28.99365723912848</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710608532</v>
+        <v>0.2780545096765584</v>
       </c>
       <c r="G4">
-        <v>-4.827721958025635</v>
+        <v>-28.99365723481437</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10384,22 +10384,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513462.72</v>
+        <v>2.768559707297154</v>
       </c>
       <c r="C5">
-        <v>1000000000112.192</v>
+        <v>95.9057215365338</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870838</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.05471187338748251</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000000969054</v>
+        <v>59.57443045127811</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999296002</v>
+        <v>0.2780545096850748</v>
       </c>
       <c r="G6">
-        <v>-8.250259507376616E-09</v>
+        <v>-28.99365723007736</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538982531</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.028134418459593</v>
+        <v>0.9717494206873251</v>
       </c>
       <c r="P2">
-        <v>1.077959469435821</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>28.17453160928734</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-90.69428644301162</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>151.5326674576811</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672167839</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.7311545120199407</v>
+        <v>0.4711324625045257</v>
       </c>
       <c r="P3">
-        <v>0.98507869969647</v>
+        <v>0.8867526821368238</v>
       </c>
       <c r="Q3">
-        <v>19.99748951701672</v>
+        <v>11.70358232174648</v>
       </c>
       <c r="R3">
-        <v>-96.70515797813935</v>
+        <v>-113.1797985005416</v>
       </c>
       <c r="S3">
-        <v>158.4629648481379</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660679844</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.6093826337930718</v>
+        <v>0.2355662312557485</v>
       </c>
       <c r="P4">
-        <v>0.9943261549536413</v>
+        <v>0.9127115190423141</v>
       </c>
       <c r="Q4">
-        <v>17.35880671887116</v>
+        <v>6.185827764751343</v>
       </c>
       <c r="R4">
-        <v>-92.6765358435927</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>162.2051963356334</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,19 +10682,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="D5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="G5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10703,34 +10703,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404533</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.9713352289731567</v>
+        <v>0.9526279648043278</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289693503</v>
+        <v>0.9526279648061705</v>
       </c>
       <c r="Q5">
-        <v>-1.951184347745244E-10</v>
+        <v>-1.465977806891572E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997976</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023881558</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>1.100000023667782</v>
+        <v>0.235566231259815</v>
       </c>
       <c r="P6">
-        <v>1.100000023726079</v>
+        <v>0.912711519050749</v>
       </c>
       <c r="Q6">
-        <v>29.99999999375012</v>
+        <v>6.185827765114877</v>
       </c>
       <c r="R6">
-        <v>-90.00000000916758</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>150.0000000019271</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
@@ -755,7 +755,7 @@
         <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206873252</v>
       </c>
       <c r="P2">
         <v>1.056597221450648</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014023</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045257</v>
+        <v>0.4711324625045256</v>
       </c>
       <c r="P3">
         <v>0.8867526821368238</v>
@@ -873,16 +873,16 @@
         <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557485</v>
+        <v>0.2355662312557482</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423141</v>
+        <v>0.9127115190423142</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751343</v>
+        <v>6.185827764751339</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957914</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -896,49 +896,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043278</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061705</v>
+        <v>0.9526279648061707</v>
       </c>
       <c r="Q5">
-        <v>-1.465977806891572E-11</v>
+        <v>-1.466785756376293E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -991,16 +991,16 @@
         <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>0.235566231259815</v>
+        <v>0.2355662312598145</v>
       </c>
       <c r="P6">
-        <v>0.912711519050749</v>
+        <v>0.9127115190507489</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114877</v>
+        <v>6.185827765114883</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912245</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
@@ -1122,7 +1122,7 @@
         <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206873252</v>
       </c>
       <c r="P2">
         <v>1.056597221450648</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014023</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045257</v>
+        <v>0.4711324625045256</v>
       </c>
       <c r="P3">
         <v>0.8867526821368238</v>
@@ -1240,16 +1240,16 @@
         <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557485</v>
+        <v>0.2355662312557482</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423141</v>
+        <v>0.9127115190423142</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751343</v>
+        <v>6.185827764751339</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957914</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -1263,49 +1263,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043278</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061705</v>
+        <v>0.9526279648061707</v>
       </c>
       <c r="Q5">
-        <v>-1.465977806891572E-11</v>
+        <v>-1.466785756376293E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1358,16 +1358,16 @@
         <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>0.235566231259815</v>
+        <v>0.2355662312598145</v>
       </c>
       <c r="P6">
-        <v>0.912711519050749</v>
+        <v>0.9127115190507489</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114877</v>
+        <v>6.185827765114883</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912245</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
@@ -1489,7 +1489,7 @@
         <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206873252</v>
       </c>
       <c r="P2">
         <v>1.056597221450648</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014023</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045257</v>
+        <v>0.4711324625045256</v>
       </c>
       <c r="P3">
         <v>0.8867526821368238</v>
@@ -1607,16 +1607,16 @@
         <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557485</v>
+        <v>0.2355662312557482</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423141</v>
+        <v>0.9127115190423142</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751343</v>
+        <v>6.185827764751339</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957914</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -1630,49 +1630,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043278</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061705</v>
+        <v>0.9526279648061707</v>
       </c>
       <c r="Q5">
-        <v>-1.465977806891572E-11</v>
+        <v>-1.466785756376293E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1725,16 +1725,16 @@
         <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>0.235566231259815</v>
+        <v>0.2355662312598145</v>
       </c>
       <c r="P6">
-        <v>0.912711519050749</v>
+        <v>0.9127115190507489</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114877</v>
+        <v>6.185827765114883</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912245</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
@@ -1865,7 +1865,7 @@
         <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842284</v>
+        <v>-93.21942694842282</v>
       </c>
       <c r="S2">
         <v>152.0849854380986</v>
@@ -1915,10 +1915,10 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399912</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879301</v>
+        <v>0.7706324860879302</v>
       </c>
       <c r="Q3">
         <v>13.65879647337782</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173009</v>
+        <v>0.9413015024173008</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809833</v>
+        <v>0.2780545096809838</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250765</v>
+        <v>0.8078419627250764</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182362</v>
+        <v>7.42258526018237</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335705</v>
       </c>
       <c r="S4">
         <v>171.3424305981766</v>
@@ -2012,34 +2012,34 @@
         <v>27.68559707302025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0.866025403788761</v>
+        <v>0.8660254037887606</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.866025403789128</v>
       </c>
       <c r="Q5">
-        <v>1.933816549993998E-10</v>
+        <v>1.93376102313304E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.941301502410579</v>
+        <v>0.9413015024105789</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894995</v>
+        <v>0.2780545096895001</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343743</v>
+        <v>0.807841962734374</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806275</v>
+        <v>7.422585260806283</v>
       </c>
       <c r="R6">
         <v>-118.9936572288336</v>
@@ -2232,7 +2232,7 @@
         <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842284</v>
+        <v>-93.21942694842282</v>
       </c>
       <c r="S2">
         <v>152.0849854380986</v>
@@ -2282,10 +2282,10 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399912</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879301</v>
+        <v>0.7706324860879302</v>
       </c>
       <c r="Q3">
         <v>13.65879647337782</v>
@@ -2338,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173009</v>
+        <v>0.9413015024173008</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809833</v>
+        <v>0.2780545096809838</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250765</v>
+        <v>0.8078419627250764</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182362</v>
+        <v>7.42258526018237</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335705</v>
       </c>
       <c r="S4">
         <v>171.3424305981766</v>
@@ -2379,34 +2379,34 @@
         <v>27.68559707302025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0.866025403788761</v>
+        <v>0.8660254037887606</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.866025403789128</v>
       </c>
       <c r="Q5">
-        <v>1.933816549993998E-10</v>
+        <v>1.93376102313304E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.941301502410579</v>
+        <v>0.9413015024105789</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894995</v>
+        <v>0.2780545096895001</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343743</v>
+        <v>0.807841962734374</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806275</v>
+        <v>7.422585260806283</v>
       </c>
       <c r="R6">
         <v>-118.9936572288336</v>
@@ -2599,7 +2599,7 @@
         <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842284</v>
+        <v>-93.21942694842282</v>
       </c>
       <c r="S2">
         <v>152.0849854380986</v>
@@ -2649,10 +2649,10 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399912</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879301</v>
+        <v>0.7706324860879302</v>
       </c>
       <c r="Q3">
         <v>13.65879647337782</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173009</v>
+        <v>0.9413015024173008</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809833</v>
+        <v>0.2780545096809838</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250765</v>
+        <v>0.8078419627250764</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182362</v>
+        <v>7.42258526018237</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335705</v>
       </c>
       <c r="S4">
         <v>171.3424305981766</v>
@@ -2746,34 +2746,34 @@
         <v>27.68559707302025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0.866025403788761</v>
+        <v>0.8660254037887606</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.866025403789128</v>
       </c>
       <c r="Q5">
-        <v>1.933816549993998E-10</v>
+        <v>1.93376102313304E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2823,16 +2823,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.941301502410579</v>
+        <v>0.9413015024105789</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894995</v>
+        <v>0.2780545096895001</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343743</v>
+        <v>0.807841962734374</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806275</v>
+        <v>7.422585260806283</v>
       </c>
       <c r="R6">
         <v>-118.9936572288336</v>
@@ -2966,7 +2966,7 @@
         <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842284</v>
+        <v>-93.21942694842282</v>
       </c>
       <c r="S2">
         <v>152.0849854380986</v>
@@ -3016,10 +3016,10 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399912</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879301</v>
+        <v>0.7706324860879302</v>
       </c>
       <c r="Q3">
         <v>13.65879647337782</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173009</v>
+        <v>0.9413015024173008</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809833</v>
+        <v>0.2780545096809838</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250765</v>
+        <v>0.8078419627250764</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182362</v>
+        <v>7.42258526018237</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335705</v>
       </c>
       <c r="S4">
         <v>171.3424305981766</v>
@@ -3113,34 +3113,34 @@
         <v>27.68559707302025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0.866025403788761</v>
+        <v>0.8660254037887606</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.866025403789128</v>
       </c>
       <c r="Q5">
-        <v>1.933816549993998E-10</v>
+        <v>1.93376102313304E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.941301502410579</v>
+        <v>0.9413015024105789</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894995</v>
+        <v>0.2780545096895001</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343743</v>
+        <v>0.807841962734374</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806275</v>
+        <v>7.422585260806283</v>
       </c>
       <c r="R6">
         <v>-118.9936572288336</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9917389427111208</v>
+        <v>1.010157388595001</v>
       </c>
       <c r="O2">
-        <v>1.100000023847089</v>
+        <v>1.100000023846614</v>
       </c>
       <c r="P2">
-        <v>1.018773429518528</v>
+        <v>1.063022528928622</v>
       </c>
       <c r="Q2">
-        <v>31.98313762604858</v>
+        <v>29.67982992930354</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.6590995766424</v>
+        <v>145.6493003763729</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5406599594186524</v>
+        <v>0.6326467291235814</v>
       </c>
       <c r="O3">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P3">
-        <v>0.8035144867332757</v>
+        <v>1.010445546279812</v>
       </c>
       <c r="Q3">
-        <v>46.07338582619841</v>
+        <v>25.04688353037184</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>117.8263709265779</v>
+        <v>124.557197838238</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5057548966381507</v>
+        <v>0.494901685618809</v>
       </c>
       <c r="O4">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P4">
-        <v>0.6576086866432964</v>
+        <v>0.9234697392610721</v>
       </c>
       <c r="Q4">
-        <v>68.23456708388066</v>
+        <v>33.57521537105433</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S4">
-        <v>106.5696916197919</v>
+        <v>116.5195785201188</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.18804582944022</v>
+        <v>4.092524193317988</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59.90639312390854</v>
+        <v>47.25639889354393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075635</v>
+        <v>1.147731927075652</v>
       </c>
       <c r="K5">
-        <v>3.4884387014162</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171095</v>
+        <v>1.147731927171107</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.550000011953244</v>
+        <v>0.376043876214354</v>
       </c>
       <c r="O5">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P5">
-        <v>0.5500000118973563</v>
+        <v>0.8581305498427853</v>
       </c>
       <c r="Q5">
-        <v>89.99999999448272</v>
+        <v>48.02276124434162</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S5">
-        <v>90.00000000551</v>
+        <v>107.043176748557</v>
       </c>
       <c r="T5">
-        <v>5.18804582944022</v>
+        <v>4.092524193317988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5057548966543195</v>
+        <v>0.4949016856285469</v>
       </c>
       <c r="O6">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P6">
-        <v>0.6576086866330463</v>
+        <v>0.9234697392511417</v>
       </c>
       <c r="Q6">
-        <v>68.23456708343635</v>
+        <v>33.57521537207315</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>106.5696916209337</v>
+        <v>116.5195785206512</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9917389427111208</v>
+        <v>1.010157388595001</v>
       </c>
       <c r="O2">
-        <v>1.100000023847089</v>
+        <v>1.100000023846614</v>
       </c>
       <c r="P2">
-        <v>1.018773429518528</v>
+        <v>1.063022528928622</v>
       </c>
       <c r="Q2">
-        <v>31.98313762604858</v>
+        <v>29.67982992930354</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.6590995766424</v>
+        <v>145.6493003763729</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5406599594186524</v>
+        <v>0.6326467291235814</v>
       </c>
       <c r="O3">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P3">
-        <v>0.8035144867332757</v>
+        <v>1.010445546279812</v>
       </c>
       <c r="Q3">
-        <v>46.07338582619841</v>
+        <v>25.04688353037184</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>117.8263709265779</v>
+        <v>124.557197838238</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5057548966381507</v>
+        <v>0.494901685618809</v>
       </c>
       <c r="O4">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P4">
-        <v>0.6576086866432964</v>
+        <v>0.9234697392610721</v>
       </c>
       <c r="Q4">
-        <v>68.23456708388066</v>
+        <v>33.57521537105433</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S4">
-        <v>106.5696916197919</v>
+        <v>116.5195785201188</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.18804582944022</v>
+        <v>4.092524193317988</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59.90639312390854</v>
+        <v>47.25639889354393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075635</v>
+        <v>1.147731927075652</v>
       </c>
       <c r="K5">
-        <v>3.4884387014162</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171095</v>
+        <v>1.147731927171107</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.550000011953244</v>
+        <v>0.376043876214354</v>
       </c>
       <c r="O5">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P5">
-        <v>0.5500000118973563</v>
+        <v>0.8581305498427853</v>
       </c>
       <c r="Q5">
-        <v>89.99999999448272</v>
+        <v>48.02276124434162</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S5">
-        <v>90.00000000551</v>
+        <v>107.043176748557</v>
       </c>
       <c r="T5">
-        <v>5.18804582944022</v>
+        <v>4.092524193317988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5057548966543195</v>
+        <v>0.4949016856285469</v>
       </c>
       <c r="O6">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P6">
-        <v>0.6576086866330463</v>
+        <v>0.9234697392511417</v>
       </c>
       <c r="Q6">
-        <v>68.23456708343635</v>
+        <v>33.57521537207315</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>106.5696916209337</v>
+        <v>116.5195785206512</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.07005338699304</v>
+        <v>1.072751921353873</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843325</v>
       </c>
       <c r="P2">
-        <v>1.086480205218673</v>
+        <v>1.089798796109867</v>
       </c>
       <c r="Q2">
-        <v>29.93022374263624</v>
+        <v>29.8069888073181</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5977988866262</v>
+        <v>148.663973293044</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9434172310242593</v>
+        <v>0.9584315353437424</v>
       </c>
       <c r="O3">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P3">
-        <v>1.044661961491181</v>
+        <v>1.060796139667338</v>
       </c>
       <c r="Q3">
-        <v>29.07850908506786</v>
+        <v>28.41314358801624</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999648</v>
       </c>
       <c r="S3">
-        <v>142.115867082149</v>
+        <v>142.6236943215193</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8985690160381108</v>
+        <v>0.9147337705624</v>
       </c>
       <c r="O4">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P4">
-        <v>1.001074895726563</v>
+        <v>1.023214073090783</v>
       </c>
       <c r="Q4">
-        <v>30.9027155372654</v>
+        <v>29.78862743918965</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S4">
-        <v>140.3701275405207</v>
+        <v>140.8825101900941</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.73319923289742</v>
+        <v>14.42993989098044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075635</v>
+        <v>1.147731927075652</v>
       </c>
       <c r="K5">
-        <v>3.4884387014162</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171095</v>
+        <v>1.147731927171107</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.8547266890462561</v>
+        <v>0.871615861617138</v>
       </c>
       <c r="O5">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P5">
-        <v>0.9585011797248308</v>
+        <v>0.9866484201455054</v>
       </c>
       <c r="Q5">
-        <v>32.9162846990792</v>
+        <v>31.30114418651963</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S5">
-        <v>138.467406117994</v>
+        <v>139.0104291905996</v>
       </c>
       <c r="T5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8985690160412707</v>
+        <v>0.9147337705649842</v>
       </c>
       <c r="O6">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P6">
-        <v>1.001074895724771</v>
+        <v>1.023214073088855</v>
       </c>
       <c r="Q6">
-        <v>30.90271553745784</v>
+        <v>29.78862743938152</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S6">
-        <v>140.3701275407487</v>
+        <v>140.8825101902908</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.07005338699304</v>
+        <v>1.072751921353873</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843325</v>
       </c>
       <c r="P2">
-        <v>1.086480205218673</v>
+        <v>1.089798796109867</v>
       </c>
       <c r="Q2">
-        <v>29.93022374263624</v>
+        <v>29.8069888073181</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5977988866262</v>
+        <v>148.663973293044</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9434172310242593</v>
+        <v>0.9584315353437424</v>
       </c>
       <c r="O3">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P3">
-        <v>1.044661961491181</v>
+        <v>1.060796139667338</v>
       </c>
       <c r="Q3">
-        <v>29.07850908506786</v>
+        <v>28.41314358801624</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999648</v>
       </c>
       <c r="S3">
-        <v>142.115867082149</v>
+        <v>142.6236943215193</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8985690160381108</v>
+        <v>0.9147337705624</v>
       </c>
       <c r="O4">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P4">
-        <v>1.001074895726563</v>
+        <v>1.023214073090783</v>
       </c>
       <c r="Q4">
-        <v>30.9027155372654</v>
+        <v>29.78862743918965</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S4">
-        <v>140.3701275405207</v>
+        <v>140.8825101900941</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.73319923289742</v>
+        <v>14.42993989098044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075635</v>
+        <v>1.147731927075652</v>
       </c>
       <c r="K5">
-        <v>3.4884387014162</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171095</v>
+        <v>1.147731927171107</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.8547266890462561</v>
+        <v>0.871615861617138</v>
       </c>
       <c r="O5">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P5">
-        <v>0.9585011797248308</v>
+        <v>0.9866484201455054</v>
       </c>
       <c r="Q5">
-        <v>32.9162846990792</v>
+        <v>31.30114418651963</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S5">
-        <v>138.467406117994</v>
+        <v>139.0104291905996</v>
       </c>
       <c r="T5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8985690160412707</v>
+        <v>0.9147337705649842</v>
       </c>
       <c r="O6">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P6">
-        <v>1.001074895724771</v>
+        <v>1.023214073088855</v>
       </c>
       <c r="Q6">
-        <v>30.90271553745784</v>
+        <v>29.78862743938152</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S6">
-        <v>140.3701275407487</v>
+        <v>140.8825101902908</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8966713734871343</v>
+        <v>0.9232445077050491</v>
       </c>
       <c r="O2">
-        <v>0.9999999999961731</v>
+        <v>0.9999999999956679</v>
       </c>
       <c r="P2">
-        <v>0.9438408768220408</v>
+        <v>0.9793278788311902</v>
       </c>
       <c r="Q2">
-        <v>30.61107002287189</v>
+        <v>28.93267399695182</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>144.8484486356858</v>
+        <v>145.5955044932402</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4985008017277147</v>
+        <v>0.6409206710249709</v>
       </c>
       <c r="O3">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P3">
-        <v>0.8458030579082588</v>
+        <v>0.9774974445581915</v>
       </c>
       <c r="Q3">
-        <v>32.32516518541934</v>
+        <v>20.80417267534875</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S3">
-        <v>119.8706392621925</v>
+        <v>127.8012940639816</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4373394470353295</v>
+        <v>0.4952592038844947</v>
       </c>
       <c r="O4">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P4">
-        <v>0.6516944633876428</v>
+        <v>0.8482828971208142</v>
       </c>
       <c r="Q4">
-        <v>61.20994934641834</v>
+        <v>32.05478928058602</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S4">
-        <v>108.8561569746339</v>
+        <v>119.6582798725382</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.152839560773523</v>
+        <v>3.152593079794917</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47.95286076627841</v>
+        <v>36.40300926529893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843951</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088274</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851247</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088116</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.500000000018031</v>
+        <v>0.3829072101097305</v>
       </c>
       <c r="O5">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P5">
-        <v>0.4999999999834788</v>
+        <v>0.7419571234708157</v>
       </c>
       <c r="Q5">
-        <v>89.99999999549722</v>
+        <v>51.11522086353513</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999663</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S5">
-        <v>90.00000000449491</v>
+        <v>108.9032302300217</v>
       </c>
       <c r="T5">
-        <v>4.152839560773523</v>
+        <v>3.152593079794917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4373394470552117</v>
+        <v>0.4952592038989199</v>
       </c>
       <c r="O6">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P6">
-        <v>0.6516944633797506</v>
+        <v>0.8482828971130237</v>
       </c>
       <c r="Q6">
-        <v>61.20994934544284</v>
+        <v>32.05478928141815</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999652</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S6">
-        <v>108.8561569763667</v>
+        <v>119.6582798734912</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8966713734871343</v>
+        <v>0.9232445077050491</v>
       </c>
       <c r="O2">
-        <v>0.9999999999961731</v>
+        <v>0.9999999999956679</v>
       </c>
       <c r="P2">
-        <v>0.9438408768220408</v>
+        <v>0.9793278788311902</v>
       </c>
       <c r="Q2">
-        <v>30.61107002287189</v>
+        <v>28.93267399695182</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>144.8484486356858</v>
+        <v>145.5955044932402</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4985008017277147</v>
+        <v>0.6409206710249709</v>
       </c>
       <c r="O3">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P3">
-        <v>0.8458030579082588</v>
+        <v>0.9774974445581915</v>
       </c>
       <c r="Q3">
-        <v>32.32516518541934</v>
+        <v>20.80417267534875</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S3">
-        <v>119.8706392621925</v>
+        <v>127.8012940639816</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4373394470353295</v>
+        <v>0.4952592038844947</v>
       </c>
       <c r="O4">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P4">
-        <v>0.6516944633876428</v>
+        <v>0.8482828971208142</v>
       </c>
       <c r="Q4">
-        <v>61.20994934641834</v>
+        <v>32.05478928058602</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S4">
-        <v>108.8561569746339</v>
+        <v>119.6582798725382</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.152839560773523</v>
+        <v>3.152593079794917</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47.95286076627841</v>
+        <v>36.40300926529893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843951</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088274</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851247</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088116</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.500000000018031</v>
+        <v>0.3829072101097305</v>
       </c>
       <c r="O5">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P5">
-        <v>0.4999999999834788</v>
+        <v>0.7419571234708157</v>
       </c>
       <c r="Q5">
-        <v>89.99999999549722</v>
+        <v>51.11522086353513</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999663</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S5">
-        <v>90.00000000449491</v>
+        <v>108.9032302300217</v>
       </c>
       <c r="T5">
-        <v>4.152839560773523</v>
+        <v>3.152593079794917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4373394470552117</v>
+        <v>0.4952592038989199</v>
       </c>
       <c r="O6">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P6">
-        <v>0.6516944633797506</v>
+        <v>0.8482828971130237</v>
       </c>
       <c r="Q6">
-        <v>61.20994934544284</v>
+        <v>32.05478928141815</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999652</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S6">
-        <v>108.8561569763667</v>
+        <v>119.6582798734912</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9706292519998697</v>
+        <v>0.9735516422626378</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985837</v>
+        <v>0.9999999999985738</v>
       </c>
       <c r="P2">
-        <v>0.9879862005556695</v>
+        <v>0.9913079823593816</v>
       </c>
       <c r="Q2">
-        <v>29.84250695526115</v>
+        <v>29.71362209436107</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4471765695397</v>
+        <v>148.5347440278592</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8589794972912008</v>
+        <v>0.873892537907147</v>
       </c>
       <c r="O3">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P3">
-        <v>0.9561489247927523</v>
+        <v>0.9708541152627018</v>
       </c>
       <c r="Q3">
-        <v>28.64757030494523</v>
+        <v>28.02209569663949</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>142.0362307983303</v>
+        <v>142.6177202263579</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8140158862310342</v>
+        <v>0.8280453571236862</v>
       </c>
       <c r="O4">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P4">
-        <v>0.8919303698408604</v>
+        <v>0.9142439859556691</v>
       </c>
       <c r="Q4">
-        <v>32.18097742317094</v>
+        <v>30.87364047352508</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>140.5730987250092</v>
+        <v>141.021036736605</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.179813358163809</v>
+        <v>1.076168954051509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.62331119858783</v>
+        <v>12.42652870630314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843951</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088274</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851247</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088116</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.7725012617988068</v>
+        <v>0.7844858086838524</v>
       </c>
       <c r="O5">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P5">
-        <v>0.8283833974071204</v>
+        <v>0.8584371517682524</v>
       </c>
       <c r="Q5">
-        <v>36.11052438552571</v>
+        <v>34.0504880785452</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S5">
-        <v>138.884239796956</v>
+        <v>139.2151937028419</v>
       </c>
       <c r="T5">
-        <v>1.179813358163808</v>
+        <v>1.076168954051509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8140158862367382</v>
+        <v>0.8280453571286525</v>
       </c>
       <c r="O6">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P6">
-        <v>0.8919303698407993</v>
+        <v>0.9142439859551553</v>
       </c>
       <c r="Q6">
-        <v>32.18097742330896</v>
+        <v>30.873640473689</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S6">
-        <v>140.5730987253967</v>
+        <v>141.0210367369483</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9706292519998697</v>
+        <v>0.9735516422626378</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985837</v>
+        <v>0.9999999999985738</v>
       </c>
       <c r="P2">
-        <v>0.9879862005556695</v>
+        <v>0.9913079823593816</v>
       </c>
       <c r="Q2">
-        <v>29.84250695526115</v>
+        <v>29.71362209436107</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4471765695397</v>
+        <v>148.5347440278592</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8589794972912008</v>
+        <v>0.873892537907147</v>
       </c>
       <c r="O3">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P3">
-        <v>0.9561489247927523</v>
+        <v>0.9708541152627018</v>
       </c>
       <c r="Q3">
-        <v>28.64757030494523</v>
+        <v>28.02209569663949</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>142.0362307983303</v>
+        <v>142.6177202263579</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8140158862310342</v>
+        <v>0.8280453571236862</v>
       </c>
       <c r="O4">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P4">
-        <v>0.8919303698408604</v>
+        <v>0.9142439859556691</v>
       </c>
       <c r="Q4">
-        <v>32.18097742317094</v>
+        <v>30.87364047352508</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>140.5730987250092</v>
+        <v>141.021036736605</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.179813358163809</v>
+        <v>1.076168954051509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.62331119858783</v>
+        <v>12.42652870630314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843951</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088274</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851247</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088116</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.7725012617988068</v>
+        <v>0.7844858086838524</v>
       </c>
       <c r="O5">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P5">
-        <v>0.8283833974071204</v>
+        <v>0.8584371517682524</v>
       </c>
       <c r="Q5">
-        <v>36.11052438552571</v>
+        <v>34.0504880785452</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S5">
-        <v>138.884239796956</v>
+        <v>139.2151937028419</v>
       </c>
       <c r="T5">
-        <v>1.179813358163808</v>
+        <v>1.076168954051509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8140158862367382</v>
+        <v>0.8280453571286525</v>
       </c>
       <c r="O6">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P6">
-        <v>0.8919303698407993</v>
+        <v>0.9142439859551553</v>
       </c>
       <c r="Q6">
-        <v>32.18097742330896</v>
+        <v>30.873640473689</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S6">
-        <v>140.5730987253967</v>
+        <v>141.0210367369483</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9717494207164722</v>
+        <v>1.043957419069057</v>
       </c>
       <c r="O2">
-        <v>0.9717494206916383</v>
+        <v>0.9717494206890078</v>
       </c>
       <c r="P2">
-        <v>0.9717494207031514</v>
+        <v>1.054703759087794</v>
       </c>
       <c r="Q2">
-        <v>28.31770442398509</v>
+        <v>25.33764318554065</v>
       </c>
       <c r="R2">
-        <v>-91.6822955760716</v>
+        <v>-91.6822955761543</v>
       </c>
       <c r="S2">
-        <v>148.3177044252175</v>
+        <v>150.17452603105</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4711324626214048</v>
+        <v>0.9336746958205915</v>
       </c>
       <c r="O3">
-        <v>0.4711324625050279</v>
+        <v>0.4711324625064578</v>
       </c>
       <c r="P3">
-        <v>0.47113246251198</v>
+        <v>0.8615214995757723</v>
       </c>
       <c r="Q3">
-        <v>6.820201507665582</v>
+        <v>0.3690627572250166</v>
       </c>
       <c r="R3">
-        <v>-113.1797984995245</v>
+        <v>-113.1797985003605</v>
       </c>
       <c r="S3">
-        <v>126.8202015163201</v>
+        <v>150.2818130818</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2355662314151711</v>
+        <v>0.8238541990208768</v>
       </c>
       <c r="O4">
-        <v>0.2355662312552986</v>
+        <v>0.2355662312565802</v>
       </c>
       <c r="P4">
-        <v>0.2355662312918535</v>
+        <v>0.8010588002424504</v>
       </c>
       <c r="Q4">
-        <v>6.820201519128974</v>
+        <v>-9.387922932202168</v>
       </c>
       <c r="R4">
-        <v>-113.1797984930499</v>
+        <v>-113.179798495303</v>
       </c>
       <c r="S4">
-        <v>126.8202015467077</v>
+        <v>154.0179562601592</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.990639311563637</v>
+        <v>4.710758729875486</v>
       </c>
       <c r="D5">
-        <v>5.990639311916996</v>
+        <v>2.064315240827369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.1739443829844</v>
+        <v>54.39515641561983</v>
       </c>
       <c r="G5">
-        <v>69.17394438706465</v>
+        <v>23.83665919967857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7445464931516911</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.7445464931557606</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-21.65787784266293</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>158.3421221574315</v>
       </c>
       <c r="T5">
-        <v>10.37609165721695</v>
+        <v>4.125231032883956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2355662314192377</v>
+        <v>0.8238541990099232</v>
       </c>
       <c r="O6">
-        <v>0.235566231259365</v>
+        <v>0.2355662312606458</v>
       </c>
       <c r="P6">
-        <v>0.2355662312959197</v>
+        <v>0.8010588002479351</v>
       </c>
       <c r="Q6">
-        <v>6.820201523695893</v>
+        <v>-9.387922931478354</v>
       </c>
       <c r="R6">
-        <v>-113.1797984884831</v>
+        <v>-113.1797984907356</v>
       </c>
       <c r="S6">
-        <v>126.8202015512746</v>
+        <v>154.0179562604241</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9717494207164722</v>
+        <v>1.043957419069057</v>
       </c>
       <c r="O2">
-        <v>0.9717494206916383</v>
+        <v>0.9717494206890078</v>
       </c>
       <c r="P2">
-        <v>0.9717494207031514</v>
+        <v>1.054703759087794</v>
       </c>
       <c r="Q2">
-        <v>28.31770442398509</v>
+        <v>25.33764318554065</v>
       </c>
       <c r="R2">
-        <v>-91.6822955760716</v>
+        <v>-91.6822955761543</v>
       </c>
       <c r="S2">
-        <v>148.3177044252175</v>
+        <v>150.17452603105</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4711324626214048</v>
+        <v>0.9336746958205915</v>
       </c>
       <c r="O3">
-        <v>0.4711324625050279</v>
+        <v>0.4711324625064578</v>
       </c>
       <c r="P3">
-        <v>0.47113246251198</v>
+        <v>0.8615214995757723</v>
       </c>
       <c r="Q3">
-        <v>6.820201507665582</v>
+        <v>0.3690627572250166</v>
       </c>
       <c r="R3">
-        <v>-113.1797984995245</v>
+        <v>-113.1797985003605</v>
       </c>
       <c r="S3">
-        <v>126.8202015163201</v>
+        <v>150.2818130818</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2355662314151711</v>
+        <v>0.8238541990208768</v>
       </c>
       <c r="O4">
-        <v>0.2355662312552986</v>
+        <v>0.2355662312565802</v>
       </c>
       <c r="P4">
-        <v>0.2355662312918535</v>
+        <v>0.8010588002424504</v>
       </c>
       <c r="Q4">
-        <v>6.820201519128974</v>
+        <v>-9.387922932202168</v>
       </c>
       <c r="R4">
-        <v>-113.1797984930499</v>
+        <v>-113.179798495303</v>
       </c>
       <c r="S4">
-        <v>126.8202015467077</v>
+        <v>154.0179562601592</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.990639311563637</v>
+        <v>4.710758729875486</v>
       </c>
       <c r="D5">
-        <v>5.990639311916996</v>
+        <v>2.064315240827369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.1739443829844</v>
+        <v>54.39515641561983</v>
       </c>
       <c r="G5">
-        <v>69.17394438706465</v>
+        <v>23.83665919967857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7445464931516911</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.7445464931557606</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-21.65787784266293</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>158.3421221574315</v>
       </c>
       <c r="T5">
-        <v>10.37609165721695</v>
+        <v>4.125231032883956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2355662314192377</v>
+        <v>0.8238541990099232</v>
       </c>
       <c r="O6">
-        <v>0.235566231259365</v>
+        <v>0.2355662312606458</v>
       </c>
       <c r="P6">
-        <v>0.2355662312959197</v>
+        <v>0.8010588002479351</v>
       </c>
       <c r="Q6">
-        <v>6.820201523695893</v>
+        <v>-9.387922931478354</v>
       </c>
       <c r="R6">
-        <v>-113.1797984884831</v>
+        <v>-113.1797984907356</v>
       </c>
       <c r="S6">
-        <v>126.8202015512746</v>
+        <v>154.0179562604241</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9717494207164722</v>
+        <v>1.043957419069057</v>
       </c>
       <c r="O2">
-        <v>0.9717494206916383</v>
+        <v>0.9717494206890078</v>
       </c>
       <c r="P2">
-        <v>0.9717494207031514</v>
+        <v>1.054703759087794</v>
       </c>
       <c r="Q2">
-        <v>28.31770442398509</v>
+        <v>25.33764318554065</v>
       </c>
       <c r="R2">
-        <v>-91.6822955760716</v>
+        <v>-91.6822955761543</v>
       </c>
       <c r="S2">
-        <v>148.3177044252175</v>
+        <v>150.17452603105</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4711324626214048</v>
+        <v>0.9336746958205915</v>
       </c>
       <c r="O3">
-        <v>0.4711324625050279</v>
+        <v>0.4711324625064578</v>
       </c>
       <c r="P3">
-        <v>0.47113246251198</v>
+        <v>0.8615214995757723</v>
       </c>
       <c r="Q3">
-        <v>6.820201507665582</v>
+        <v>0.3690627572250166</v>
       </c>
       <c r="R3">
-        <v>-113.1797984995245</v>
+        <v>-113.1797985003605</v>
       </c>
       <c r="S3">
-        <v>126.8202015163201</v>
+        <v>150.2818130818</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2355662314151711</v>
+        <v>0.8238541990208768</v>
       </c>
       <c r="O4">
-        <v>0.2355662312552986</v>
+        <v>0.2355662312565802</v>
       </c>
       <c r="P4">
-        <v>0.2355662312918535</v>
+        <v>0.8010588002424504</v>
       </c>
       <c r="Q4">
-        <v>6.820201519128974</v>
+        <v>-9.387922932202168</v>
       </c>
       <c r="R4">
-        <v>-113.1797984930499</v>
+        <v>-113.179798495303</v>
       </c>
       <c r="S4">
-        <v>126.8202015467077</v>
+        <v>154.0179562601592</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.990639311563637</v>
+        <v>4.710758729875486</v>
       </c>
       <c r="D5">
-        <v>5.990639311916996</v>
+        <v>2.064315240827369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.1739443829844</v>
+        <v>54.39515641561983</v>
       </c>
       <c r="G5">
-        <v>69.17394438706465</v>
+        <v>23.83665919967857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7445464931516911</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.7445464931557606</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-21.65787784266293</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>158.3421221574315</v>
       </c>
       <c r="T5">
-        <v>10.37609165721695</v>
+        <v>4.125231032883956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2355662314192377</v>
+        <v>0.8238541990099232</v>
       </c>
       <c r="O6">
-        <v>0.235566231259365</v>
+        <v>0.2355662312606458</v>
       </c>
       <c r="P6">
-        <v>0.2355662312959197</v>
+        <v>0.8010588002479351</v>
       </c>
       <c r="Q6">
-        <v>6.820201523695893</v>
+        <v>-9.387922931478354</v>
       </c>
       <c r="R6">
-        <v>-113.1797984884831</v>
+        <v>-113.1797984907356</v>
       </c>
       <c r="S6">
-        <v>126.8202015512746</v>
+        <v>154.0179562604241</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9717494207164722</v>
+        <v>1.043957419069057</v>
       </c>
       <c r="O2">
-        <v>0.9717494206916383</v>
+        <v>0.9717494206890078</v>
       </c>
       <c r="P2">
-        <v>0.9717494207031514</v>
+        <v>1.054703759087794</v>
       </c>
       <c r="Q2">
-        <v>28.31770442398509</v>
+        <v>25.33764318554065</v>
       </c>
       <c r="R2">
-        <v>-91.6822955760716</v>
+        <v>-91.6822955761543</v>
       </c>
       <c r="S2">
-        <v>148.3177044252175</v>
+        <v>150.17452603105</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4711324626214048</v>
+        <v>0.9336746958205915</v>
       </c>
       <c r="O3">
-        <v>0.4711324625050279</v>
+        <v>0.4711324625064578</v>
       </c>
       <c r="P3">
-        <v>0.47113246251198</v>
+        <v>0.8615214995757723</v>
       </c>
       <c r="Q3">
-        <v>6.820201507665582</v>
+        <v>0.3690627572250166</v>
       </c>
       <c r="R3">
-        <v>-113.1797984995245</v>
+        <v>-113.1797985003605</v>
       </c>
       <c r="S3">
-        <v>126.8202015163201</v>
+        <v>150.2818130818</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2355662314151711</v>
+        <v>0.8238541990208768</v>
       </c>
       <c r="O4">
-        <v>0.2355662312552986</v>
+        <v>0.2355662312565802</v>
       </c>
       <c r="P4">
-        <v>0.2355662312918535</v>
+        <v>0.8010588002424504</v>
       </c>
       <c r="Q4">
-        <v>6.820201519128974</v>
+        <v>-9.387922932202168</v>
       </c>
       <c r="R4">
-        <v>-113.1797984930499</v>
+        <v>-113.179798495303</v>
       </c>
       <c r="S4">
-        <v>126.8202015467077</v>
+        <v>154.0179562601592</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.990639311563637</v>
+        <v>4.710758729875486</v>
       </c>
       <c r="D5">
-        <v>5.990639311916996</v>
+        <v>2.064315240827369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.1739443829844</v>
+        <v>54.39515641561983</v>
       </c>
       <c r="G5">
-        <v>69.17394438706465</v>
+        <v>23.83665919967857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7445464931516911</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.7445464931557606</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-21.65787784266293</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>158.3421221574315</v>
       </c>
       <c r="T5">
-        <v>10.37609165721695</v>
+        <v>4.125231032883956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2355662314192377</v>
+        <v>0.8238541990099232</v>
       </c>
       <c r="O6">
-        <v>0.235566231259365</v>
+        <v>0.2355662312606458</v>
       </c>
       <c r="P6">
-        <v>0.2355662312959197</v>
+        <v>0.8010588002479351</v>
       </c>
       <c r="Q6">
-        <v>6.820201523695893</v>
+        <v>-9.387922931478354</v>
       </c>
       <c r="R6">
-        <v>-113.1797984884831</v>
+        <v>-113.1797984907356</v>
       </c>
       <c r="S6">
-        <v>126.8202015512746</v>
+        <v>154.0179562604241</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.892507760131139</v>
+        <v>0.9644535993515083</v>
       </c>
       <c r="O2">
-        <v>0.8925077601136238</v>
+        <v>0.8925077601143854</v>
       </c>
       <c r="P2">
-        <v>0.8925077601141856</v>
+        <v>0.9535362759115215</v>
       </c>
       <c r="Q2">
-        <v>26.78057305214607</v>
+        <v>25.13108154581319</v>
       </c>
       <c r="R2">
-        <v>-93.21942694845659</v>
+        <v>-93.21942694843106</v>
       </c>
       <c r="S2">
-        <v>146.7805730528112</v>
+        <v>149.6708070974637</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5561090193964657</v>
+        <v>0.925488200205385</v>
       </c>
       <c r="O3">
-        <v>0.5561090193441953</v>
+        <v>0.5561090193398727</v>
       </c>
       <c r="P3">
-        <v>0.5561090193002607</v>
+        <v>0.7777352971008309</v>
       </c>
       <c r="Q3">
-        <v>1.006342769759713</v>
+        <v>4.025736121509764</v>
       </c>
       <c r="R3">
-        <v>-118.9936572385715</v>
+        <v>-118.9936572386236</v>
       </c>
       <c r="S3">
-        <v>121.0063427702507</v>
+        <v>147.1881963083199</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2780545097843384</v>
+        <v>0.7674136121425428</v>
       </c>
       <c r="O4">
-        <v>0.2780545096858937</v>
+        <v>0.2780545096813663</v>
       </c>
       <c r="P4">
-        <v>0.2780545096647438</v>
+        <v>0.7039562458813875</v>
       </c>
       <c r="Q4">
-        <v>1.006342783045985</v>
+        <v>-5.418801901052372</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336933</v>
+        <v>-118.993657233591</v>
       </c>
       <c r="S4">
-        <v>121.0063427922368</v>
+        <v>153.3567747227124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.795286076026515</v>
+        <v>3.627458725346475</v>
       </c>
       <c r="D5">
-        <v>4.795286076429949</v>
+        <v>1.872049012502107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37119413670345</v>
+        <v>41.88628543106088</v>
       </c>
       <c r="G5">
-        <v>55.3711941413619</v>
+        <v>21.61656002608529</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6401586597745322</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6401586597763608</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-19.14201533023191</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>160.8579846692029</v>
       </c>
       <c r="T5">
-        <v>8.305679120511529</v>
+        <v>3.214230866008042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2780545097928547</v>
+        <v>0.7674136121344403</v>
       </c>
       <c r="O6">
-        <v>0.2780545096944099</v>
+        <v>0.2780545096898816</v>
       </c>
       <c r="P6">
-        <v>0.2780545096732598</v>
+        <v>0.7039562458904165</v>
       </c>
       <c r="Q6">
-        <v>1.006342787782974</v>
+        <v>-5.418801899806817</v>
       </c>
       <c r="R6">
-        <v>-118.9936572289564</v>
+        <v>-118.9936572288536</v>
       </c>
       <c r="S6">
-        <v>121.0063427969737</v>
+        <v>153.3567747229701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.892507760131139</v>
+        <v>0.9644535993515083</v>
       </c>
       <c r="O2">
-        <v>0.8925077601136238</v>
+        <v>0.8925077601143854</v>
       </c>
       <c r="P2">
-        <v>0.8925077601141856</v>
+        <v>0.9535362759115215</v>
       </c>
       <c r="Q2">
-        <v>26.78057305214607</v>
+        <v>25.13108154581319</v>
       </c>
       <c r="R2">
-        <v>-93.21942694845659</v>
+        <v>-93.21942694843106</v>
       </c>
       <c r="S2">
-        <v>146.7805730528112</v>
+        <v>149.6708070974637</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5561090193964657</v>
+        <v>0.925488200205385</v>
       </c>
       <c r="O3">
-        <v>0.5561090193441953</v>
+        <v>0.5561090193398727</v>
       </c>
       <c r="P3">
-        <v>0.5561090193002607</v>
+        <v>0.7777352971008309</v>
       </c>
       <c r="Q3">
-        <v>1.006342769759713</v>
+        <v>4.025736121509764</v>
       </c>
       <c r="R3">
-        <v>-118.9936572385715</v>
+        <v>-118.9936572386236</v>
       </c>
       <c r="S3">
-        <v>121.0063427702507</v>
+        <v>147.1881963083199</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2780545097843384</v>
+        <v>0.7674136121425428</v>
       </c>
       <c r="O4">
-        <v>0.2780545096858937</v>
+        <v>0.2780545096813663</v>
       </c>
       <c r="P4">
-        <v>0.2780545096647438</v>
+        <v>0.7039562458813875</v>
       </c>
       <c r="Q4">
-        <v>1.006342783045985</v>
+        <v>-5.418801901052372</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336933</v>
+        <v>-118.993657233591</v>
       </c>
       <c r="S4">
-        <v>121.0063427922368</v>
+        <v>153.3567747227124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.795286076026515</v>
+        <v>3.627458725346475</v>
       </c>
       <c r="D5">
-        <v>4.795286076429949</v>
+        <v>1.872049012502107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37119413670345</v>
+        <v>41.88628543106088</v>
       </c>
       <c r="G5">
-        <v>55.3711941413619</v>
+        <v>21.61656002608529</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6401586597745322</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6401586597763608</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-19.14201533023191</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>160.8579846692029</v>
       </c>
       <c r="T5">
-        <v>8.305679120511529</v>
+        <v>3.214230866008042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2780545097928547</v>
+        <v>0.7674136121344403</v>
       </c>
       <c r="O6">
-        <v>0.2780545096944099</v>
+        <v>0.2780545096898816</v>
       </c>
       <c r="P6">
-        <v>0.2780545096732598</v>
+        <v>0.7039562458904165</v>
       </c>
       <c r="Q6">
-        <v>1.006342787782974</v>
+        <v>-5.418801899806817</v>
       </c>
       <c r="R6">
-        <v>-118.9936572289564</v>
+        <v>-118.9936572288536</v>
       </c>
       <c r="S6">
-        <v>121.0063427969737</v>
+        <v>153.3567747229701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.892507760131139</v>
+        <v>0.9644535993515083</v>
       </c>
       <c r="O2">
-        <v>0.8925077601136238</v>
+        <v>0.8925077601143854</v>
       </c>
       <c r="P2">
-        <v>0.8925077601141856</v>
+        <v>0.9535362759115215</v>
       </c>
       <c r="Q2">
-        <v>26.78057305214607</v>
+        <v>25.13108154581319</v>
       </c>
       <c r="R2">
-        <v>-93.21942694845659</v>
+        <v>-93.21942694843106</v>
       </c>
       <c r="S2">
-        <v>146.7805730528112</v>
+        <v>149.6708070974637</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5561090193964657</v>
+        <v>0.925488200205385</v>
       </c>
       <c r="O3">
-        <v>0.5561090193441953</v>
+        <v>0.5561090193398727</v>
       </c>
       <c r="P3">
-        <v>0.5561090193002607</v>
+        <v>0.7777352971008309</v>
       </c>
       <c r="Q3">
-        <v>1.006342769759713</v>
+        <v>4.025736121509764</v>
       </c>
       <c r="R3">
-        <v>-118.9936572385715</v>
+        <v>-118.9936572386236</v>
       </c>
       <c r="S3">
-        <v>121.0063427702507</v>
+        <v>147.1881963083199</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2780545097843384</v>
+        <v>0.7674136121425428</v>
       </c>
       <c r="O4">
-        <v>0.2780545096858937</v>
+        <v>0.2780545096813663</v>
       </c>
       <c r="P4">
-        <v>0.2780545096647438</v>
+        <v>0.7039562458813875</v>
       </c>
       <c r="Q4">
-        <v>1.006342783045985</v>
+        <v>-5.418801901052372</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336933</v>
+        <v>-118.993657233591</v>
       </c>
       <c r="S4">
-        <v>121.0063427922368</v>
+        <v>153.3567747227124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.795286076026515</v>
+        <v>3.627458725346475</v>
       </c>
       <c r="D5">
-        <v>4.795286076429949</v>
+        <v>1.872049012502107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37119413670345</v>
+        <v>41.88628543106088</v>
       </c>
       <c r="G5">
-        <v>55.3711941413619</v>
+        <v>21.61656002608529</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6401586597745322</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6401586597763608</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-19.14201533023191</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>160.8579846692029</v>
       </c>
       <c r="T5">
-        <v>8.305679120511529</v>
+        <v>3.214230866008042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2780545097928547</v>
+        <v>0.7674136121344403</v>
       </c>
       <c r="O6">
-        <v>0.2780545096944099</v>
+        <v>0.2780545096898816</v>
       </c>
       <c r="P6">
-        <v>0.2780545096732598</v>
+        <v>0.7039562458904165</v>
       </c>
       <c r="Q6">
-        <v>1.006342787782974</v>
+        <v>-5.418801899806817</v>
       </c>
       <c r="R6">
-        <v>-118.9936572289564</v>
+        <v>-118.9936572288536</v>
       </c>
       <c r="S6">
-        <v>121.0063427969737</v>
+        <v>153.3567747229701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.892507760131139</v>
+        <v>0.9644535993515083</v>
       </c>
       <c r="O2">
-        <v>0.8925077601136238</v>
+        <v>0.8925077601143854</v>
       </c>
       <c r="P2">
-        <v>0.8925077601141856</v>
+        <v>0.9535362759115215</v>
       </c>
       <c r="Q2">
-        <v>26.78057305214607</v>
+        <v>25.13108154581319</v>
       </c>
       <c r="R2">
-        <v>-93.21942694845659</v>
+        <v>-93.21942694843106</v>
       </c>
       <c r="S2">
-        <v>146.7805730528112</v>
+        <v>149.6708070974637</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5561090193964657</v>
+        <v>0.925488200205385</v>
       </c>
       <c r="O3">
-        <v>0.5561090193441953</v>
+        <v>0.5561090193398727</v>
       </c>
       <c r="P3">
-        <v>0.5561090193002607</v>
+        <v>0.7777352971008309</v>
       </c>
       <c r="Q3">
-        <v>1.006342769759713</v>
+        <v>4.025736121509764</v>
       </c>
       <c r="R3">
-        <v>-118.9936572385715</v>
+        <v>-118.9936572386236</v>
       </c>
       <c r="S3">
-        <v>121.0063427702507</v>
+        <v>147.1881963083199</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2780545097843384</v>
+        <v>0.7674136121425428</v>
       </c>
       <c r="O4">
-        <v>0.2780545096858937</v>
+        <v>0.2780545096813663</v>
       </c>
       <c r="P4">
-        <v>0.2780545096647438</v>
+        <v>0.7039562458813875</v>
       </c>
       <c r="Q4">
-        <v>1.006342783045985</v>
+        <v>-5.418801901052372</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336933</v>
+        <v>-118.993657233591</v>
       </c>
       <c r="S4">
-        <v>121.0063427922368</v>
+        <v>153.3567747227124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.795286076026515</v>
+        <v>3.627458725346475</v>
       </c>
       <c r="D5">
-        <v>4.795286076429949</v>
+        <v>1.872049012502107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37119413670345</v>
+        <v>41.88628543106088</v>
       </c>
       <c r="G5">
-        <v>55.3711941413619</v>
+        <v>21.61656002608529</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846884</v>
       </c>
       <c r="J5">
-        <v>2.112151900864168</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851109</v>
+        <v>2.112151900851148</v>
       </c>
       <c r="M5">
-        <v>3.596397547088175</v>
+        <v>3.596397547088222</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6401586597745322</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6401586597763608</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-19.14201533023191</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>160.8579846692029</v>
       </c>
       <c r="T5">
-        <v>8.305679120511529</v>
+        <v>3.214230866008042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2780545097928547</v>
+        <v>0.7674136121344403</v>
       </c>
       <c r="O6">
-        <v>0.2780545096944099</v>
+        <v>0.2780545096898816</v>
       </c>
       <c r="P6">
-        <v>0.2780545096732598</v>
+        <v>0.7039562458904165</v>
       </c>
       <c r="Q6">
-        <v>1.006342787782974</v>
+        <v>-5.418801899806817</v>
       </c>
       <c r="R6">
-        <v>-118.9936572289564</v>
+        <v>-118.9936572288536</v>
       </c>
       <c r="S6">
-        <v>121.0063427969737</v>
+        <v>153.3567747229701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206873252</v>
       </c>
       <c r="P2">
         <v>1.056597221450648</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014023</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045257</v>
+        <v>0.4711324625045256</v>
       </c>
       <c r="P3">
         <v>0.8867526821368238</v>
@@ -10659,16 +10659,16 @@
         <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557485</v>
+        <v>0.2355662312557482</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423141</v>
+        <v>0.9127115190423142</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751343</v>
+        <v>6.185827764751339</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957914</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -10682,49 +10682,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773959</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498803722</v>
       </c>
       <c r="J5">
-        <v>1.147731927164247</v>
+        <v>1.147731927164235</v>
       </c>
       <c r="K5">
-        <v>3.488438701404533</v>
+        <v>3.488438701404529</v>
       </c>
       <c r="L5">
-        <v>1.147731927171002</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043278</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061705</v>
+        <v>0.9526279648061707</v>
       </c>
       <c r="Q5">
-        <v>-1.465977806891572E-11</v>
+        <v>-1.466785756376293E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10777,16 +10777,16 @@
         <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>0.235566231259815</v>
+        <v>0.2355662312598145</v>
       </c>
       <c r="P6">
-        <v>0.912711519050749</v>
+        <v>0.9127115190507489</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114877</v>
+        <v>6.185827765114883</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912245</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
